--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY5"/>
+  <dimension ref="A1:AY40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,6 +1151,4082 @@
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111867520</v>
+      </c>
+      <c r="B6" t="n">
+        <v>90854</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>2079</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nordtagging</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Odonticium romellii</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>703304.5925224626</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7299304.212422617</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111867094</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>703078.4122161027</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7299477.936543548</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111867735</v>
+      </c>
+      <c r="B8" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>703215.6669113962</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7299218.726026188</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111867347</v>
+      </c>
+      <c r="B9" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>703129.4972059733</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7299397.824206996</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111867494</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>703166.5193559844</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7299306.403931977</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111867030</v>
+      </c>
+      <c r="B11" t="n">
+        <v>95538</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>221941</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plattlummer</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lycopodium complanatum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>703118.8428476704</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7299507.603590234</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111867113</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>703089.4959027101</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7299467.172166394</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111867708</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>703302.994579477</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7299285.950966947</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111867456</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>703128.9005519629</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7299347.87584792</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111866919</v>
+      </c>
+      <c r="B15" t="n">
+        <v>90689</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5966</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sarcodon squamosus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>703070.5942336121</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7299535.948440861</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111867682</v>
+      </c>
+      <c r="B16" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>703310.8095286442</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7299298.053094583</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111867066</v>
+      </c>
+      <c r="B17" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>703117.4226217524</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7299492.65569081</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111867253</v>
+      </c>
+      <c r="B18" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>703122.1153461011</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7299414.624737519</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111867442</v>
+      </c>
+      <c r="B19" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>703126.971377191</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7299357.638222828</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111868139</v>
+      </c>
+      <c r="B20" t="n">
+        <v>77597</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>864</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Knottrig blåslav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Hypogymnia bitteri</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>703310.8095286442</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7299298.053094583</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111867007</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90709</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>703070.0396593859</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7299502.915184345</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111867696</v>
+      </c>
+      <c r="B22" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>703310.8095286442</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7299298.053094583</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111867075</v>
+      </c>
+      <c r="B23" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>703079.296544011</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7299482.94824858</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111867326</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>703121.4342242506</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7299406.740167543</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111867104</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90709</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>703082.5451022713</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7299472.042296089</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111866871</v>
+      </c>
+      <c r="B26" t="n">
+        <v>90652</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>3100</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Talltaggsvamp</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Bankera fuligineoalba</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>703075.8558040321</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7299584.161187203</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111866982</v>
+      </c>
+      <c r="B27" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>703115.6367589685</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7299535.421832842</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111867403</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>703140.5813816102</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7299387.059685718</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111867119</v>
+      </c>
+      <c r="B29" t="n">
+        <v>88489</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Vaddporing</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Anomoporia kamtschatica</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>703180.3354239021</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7299490.506841285</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111867186</v>
+      </c>
+      <c r="B30" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>703113.0030864173</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7299432.540119915</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111867473</v>
+      </c>
+      <c r="B31" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>703142.4611243972</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7299313.776343916</v>
+      </c>
+      <c r="S31" t="n">
+        <v>10</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>111867419</v>
+      </c>
+      <c r="B32" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>703159.5881134692</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7299375.205745419</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>111867059</v>
+      </c>
+      <c r="B33" t="n">
+        <v>77267</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6446</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Kolflarnlav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Carbonicola anthracophila</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>703135.1269184008</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7299505.043446576</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>111867055</v>
+      </c>
+      <c r="B34" t="n">
+        <v>78107</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6453</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Vedskivlav</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Hertelidea botryosa</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>703135.8905520557</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7299505.922315865</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>111867661</v>
+      </c>
+      <c r="B35" t="n">
+        <v>73692</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>310</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Nordlig nållav</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Chaenotheca laevigata</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Nádv.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>703308.4646664646</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7299302.011735545</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>111867014</v>
+      </c>
+      <c r="B36" t="n">
+        <v>90660</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4362</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Blå taggsvamp</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Hydnellum caeruleum</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>703118.8428476704</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7299507.603590234</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>111866960</v>
+      </c>
+      <c r="B37" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>703098.9329420771</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7299526.404463467</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>111867750</v>
+      </c>
+      <c r="B38" t="n">
+        <v>90682</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>703230.3439029651</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7299262.248702347</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>111867271</v>
+      </c>
+      <c r="B39" t="n">
+        <v>95538</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>221941</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Plattlummer</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Lycopodium complanatum</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>703122.1153461011</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7299414.624737519</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>111866994</v>
+      </c>
+      <c r="B40" t="n">
+        <v>90709</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5448</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Svartvit taggsvamp</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Phellodon connatus</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Vikvallen, Pi lm</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>703114.8550411762</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7299511.445840456</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Norrbotten</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Pite lappmark</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Arvidsjaur</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Heike Kontermann</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Heike Kontermann, Steve Daurer, Kirsten Stelling</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -1153,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111867520</v>
+        <v>111867104</v>
       </c>
       <c r="B6" t="n">
-        <v>90854</v>
+        <v>90709</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,21 +1169,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2079</v>
+        <v>5448</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703304.5925224626</v>
+        <v>703082.5451022713</v>
       </c>
       <c r="R6" t="n">
-        <v>7299304.212422617</v>
+        <v>7299472.042296089</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111867094</v>
+        <v>111867750</v>
       </c>
       <c r="B7" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,21 +1285,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703078.4122161027</v>
+        <v>703230.3439029651</v>
       </c>
       <c r="R7" t="n">
-        <v>7299477.936543548</v>
+        <v>7299262.248702347</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111867735</v>
+        <v>111867494</v>
       </c>
       <c r="B8" t="n">
         <v>90652</v>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703215.6669113962</v>
+        <v>703166.5193559844</v>
       </c>
       <c r="R8" t="n">
-        <v>7299218.726026188</v>
+        <v>7299306.403931977</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111867347</v>
+        <v>111867055</v>
       </c>
       <c r="B9" t="n">
-        <v>90682</v>
+        <v>78107</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1517,21 +1517,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1544,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703129.4972059733</v>
+        <v>703135.8905520557</v>
       </c>
       <c r="R9" t="n">
-        <v>7299397.824206996</v>
+        <v>7299505.922315865</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111867494</v>
+        <v>111866871</v>
       </c>
       <c r="B10" t="n">
         <v>90652</v>
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>703166.5193559844</v>
+        <v>703075.8558040321</v>
       </c>
       <c r="R10" t="n">
-        <v>7299306.403931977</v>
+        <v>7299584.161187203</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111867030</v>
+        <v>111867696</v>
       </c>
       <c r="B11" t="n">
-        <v>95538</v>
+        <v>90660</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,31 +1745,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221941</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1777,10 +1776,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703118.8428476704</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R11" t="n">
-        <v>7299507.603590234</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1850,10 +1849,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111867113</v>
+        <v>111866919</v>
       </c>
       <c r="B12" t="n">
-        <v>90660</v>
+        <v>90689</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1866,21 +1865,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4362</v>
+        <v>5966</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1893,10 +1892,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703089.4959027101</v>
+        <v>703070.5942336121</v>
       </c>
       <c r="R12" t="n">
-        <v>7299467.172166394</v>
+        <v>7299535.948440861</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1966,10 +1965,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111867708</v>
+        <v>111867661</v>
       </c>
       <c r="B13" t="n">
-        <v>5113</v>
+        <v>73692</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1978,36 +1977,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100526</v>
+        <v>310</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2015,10 +2008,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703302.994579477</v>
+        <v>703308.4646664646</v>
       </c>
       <c r="R13" t="n">
-        <v>7299285.950966947</v>
+        <v>7299302.011735545</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2088,7 +2081,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111867456</v>
+        <v>111867253</v>
       </c>
       <c r="B14" t="n">
         <v>90652</v>
@@ -2131,10 +2124,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703128.9005519629</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R14" t="n">
-        <v>7299347.87584792</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2204,10 +2197,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111866919</v>
+        <v>111867456</v>
       </c>
       <c r="B15" t="n">
-        <v>90689</v>
+        <v>90652</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2220,21 +2213,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5966</v>
+        <v>3100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2247,10 +2240,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>703070.5942336121</v>
+        <v>703128.9005519629</v>
       </c>
       <c r="R15" t="n">
-        <v>7299535.948440861</v>
+        <v>7299347.87584792</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2320,10 +2313,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111867682</v>
+        <v>111867113</v>
       </c>
       <c r="B16" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2336,21 +2329,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2363,10 +2356,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>703310.8095286442</v>
+        <v>703089.4959027101</v>
       </c>
       <c r="R16" t="n">
-        <v>7299298.053094583</v>
+        <v>7299467.172166394</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2436,10 +2429,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111867066</v>
+        <v>111867419</v>
       </c>
       <c r="B17" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2452,21 +2445,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2479,10 +2472,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>703117.4226217524</v>
+        <v>703159.5881134692</v>
       </c>
       <c r="R17" t="n">
-        <v>7299492.65569081</v>
+        <v>7299375.205745419</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2552,10 +2545,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111867253</v>
+        <v>111867007</v>
       </c>
       <c r="B18" t="n">
-        <v>90652</v>
+        <v>90709</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2568,21 +2561,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3100</v>
+        <v>5448</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2595,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>703122.1153461011</v>
+        <v>703070.0396593859</v>
       </c>
       <c r="R18" t="n">
-        <v>7299414.624737519</v>
+        <v>7299502.915184345</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2668,10 +2661,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111867442</v>
+        <v>111866982</v>
       </c>
       <c r="B19" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2684,21 +2677,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2711,10 +2704,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>703126.971377191</v>
+        <v>703115.6367589685</v>
       </c>
       <c r="R19" t="n">
-        <v>7299357.638222828</v>
+        <v>7299535.421832842</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2784,10 +2777,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111868139</v>
+        <v>111867014</v>
       </c>
       <c r="B20" t="n">
-        <v>77597</v>
+        <v>90660</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2800,21 +2793,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>864</v>
+        <v>4362</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2827,10 +2820,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>703310.8095286442</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R20" t="n">
-        <v>7299298.053094583</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2900,10 +2893,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111867007</v>
+        <v>111867271</v>
       </c>
       <c r="B21" t="n">
-        <v>90709</v>
+        <v>95538</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2912,30 +2905,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5448</v>
+        <v>221941</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2943,10 +2937,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>703070.0396593859</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R21" t="n">
-        <v>7299502.915184345</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3016,10 +3010,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111867696</v>
+        <v>111867059</v>
       </c>
       <c r="B22" t="n">
-        <v>90660</v>
+        <v>77267</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3032,21 +3026,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4362</v>
+        <v>6446</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3059,10 +3053,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>703310.8095286442</v>
+        <v>703135.1269184008</v>
       </c>
       <c r="R22" t="n">
-        <v>7299298.053094583</v>
+        <v>7299505.043446576</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3132,10 +3126,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111867075</v>
+        <v>111868139</v>
       </c>
       <c r="B23" t="n">
-        <v>90660</v>
+        <v>77597</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3148,21 +3142,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4362</v>
+        <v>864</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3175,10 +3169,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>703079.296544011</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R23" t="n">
-        <v>7299482.94824858</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3248,10 +3242,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111867326</v>
+        <v>111867094</v>
       </c>
       <c r="B24" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3264,21 +3258,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3291,10 +3285,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>703121.4342242506</v>
+        <v>703078.4122161027</v>
       </c>
       <c r="R24" t="n">
-        <v>7299406.740167543</v>
+        <v>7299477.936543548</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3364,10 +3358,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111867104</v>
+        <v>111867708</v>
       </c>
       <c r="B25" t="n">
-        <v>90709</v>
+        <v>5113</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3376,30 +3370,36 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5448</v>
+        <v>100526</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3407,10 +3407,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>703082.5451022713</v>
+        <v>703302.994579477</v>
       </c>
       <c r="R25" t="n">
-        <v>7299472.042296089</v>
+        <v>7299285.950966947</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3480,10 +3480,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111866871</v>
+        <v>111867682</v>
       </c>
       <c r="B26" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3496,21 +3496,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>703075.8558040321</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R26" t="n">
-        <v>7299584.161187203</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3596,7 +3596,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111866982</v>
+        <v>111867347</v>
       </c>
       <c r="B27" t="n">
         <v>90682</v>
@@ -3639,10 +3639,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>703115.6367589685</v>
+        <v>703129.4972059733</v>
       </c>
       <c r="R27" t="n">
-        <v>7299535.421832842</v>
+        <v>7299397.824206996</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111867403</v>
+        <v>111867520</v>
       </c>
       <c r="B28" t="n">
-        <v>90660</v>
+        <v>90854</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3728,21 +3728,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4362</v>
+        <v>2079</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3755,10 +3755,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>703140.5813816102</v>
+        <v>703304.5925224626</v>
       </c>
       <c r="R28" t="n">
-        <v>7299387.059685718</v>
+        <v>7299304.212422617</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111867119</v>
+        <v>111867442</v>
       </c>
       <c r="B29" t="n">
-        <v>88489</v>
+        <v>90652</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3844,21 +3844,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1962</v>
+        <v>3100</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>703180.3354239021</v>
+        <v>703126.971377191</v>
       </c>
       <c r="R29" t="n">
-        <v>7299490.506841285</v>
+        <v>7299357.638222828</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111867186</v>
+        <v>111867473</v>
       </c>
       <c r="B30" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3956,37 +3956,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -3995,10 +3987,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>703113.0030864173</v>
+        <v>703142.4611243972</v>
       </c>
       <c r="R30" t="n">
-        <v>7299432.540119915</v>
+        <v>7299313.776343916</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4068,10 +4060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111867473</v>
+        <v>111867186</v>
       </c>
       <c r="B31" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4080,29 +4072,37 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -4111,10 +4111,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>703142.4611243972</v>
+        <v>703113.0030864173</v>
       </c>
       <c r="R31" t="n">
-        <v>7299313.776343916</v>
+        <v>7299432.540119915</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4184,10 +4184,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111867419</v>
+        <v>111867119</v>
       </c>
       <c r="B32" t="n">
-        <v>90658</v>
+        <v>88489</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4200,21 +4200,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4361</v>
+        <v>1962</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4227,10 +4227,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>703159.5881134692</v>
+        <v>703180.3354239021</v>
       </c>
       <c r="R32" t="n">
-        <v>7299375.205745419</v>
+        <v>7299490.506841285</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4300,10 +4300,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111867059</v>
+        <v>111866960</v>
       </c>
       <c r="B33" t="n">
-        <v>77267</v>
+        <v>90658</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4316,21 +4316,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6446</v>
+        <v>4361</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4343,10 +4343,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>703135.1269184008</v>
+        <v>703098.9329420771</v>
       </c>
       <c r="R33" t="n">
-        <v>7299505.043446576</v>
+        <v>7299526.404463467</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111867055</v>
+        <v>111867735</v>
       </c>
       <c r="B34" t="n">
-        <v>78107</v>
+        <v>90652</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4432,21 +4432,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6453</v>
+        <v>3100</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4459,10 +4459,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>703135.8905520557</v>
+        <v>703215.6669113962</v>
       </c>
       <c r="R34" t="n">
-        <v>7299505.922315865</v>
+        <v>7299218.726026188</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4532,10 +4532,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111867661</v>
+        <v>111867326</v>
       </c>
       <c r="B35" t="n">
-        <v>73692</v>
+        <v>90652</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4548,21 +4548,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>310</v>
+        <v>3100</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>703308.4646664646</v>
+        <v>703121.4342242506</v>
       </c>
       <c r="R35" t="n">
-        <v>7299302.011735545</v>
+        <v>7299406.740167543</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111867014</v>
+        <v>111867403</v>
       </c>
       <c r="B36" t="n">
         <v>90660</v>
@@ -4691,10 +4691,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>703118.8428476704</v>
+        <v>703140.5813816102</v>
       </c>
       <c r="R36" t="n">
-        <v>7299507.603590234</v>
+        <v>7299387.059685718</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111866960</v>
+        <v>111867075</v>
       </c>
       <c r="B37" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4780,21 +4780,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4807,10 +4807,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>703098.9329420771</v>
+        <v>703079.296544011</v>
       </c>
       <c r="R37" t="n">
-        <v>7299526.404463467</v>
+        <v>7299482.94824858</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111867750</v>
+        <v>111866994</v>
       </c>
       <c r="B38" t="n">
-        <v>90682</v>
+        <v>90709</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4896,21 +4896,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2059</v>
+        <v>5448</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4923,10 +4923,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>703230.3439029651</v>
+        <v>703114.8550411762</v>
       </c>
       <c r="R38" t="n">
-        <v>7299262.248702347</v>
+        <v>7299511.445840456</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111867271</v>
+        <v>111867066</v>
       </c>
       <c r="B39" t="n">
-        <v>95538</v>
+        <v>90652</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5008,31 +5008,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5040,10 +5039,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>703122.1153461011</v>
+        <v>703117.4226217524</v>
       </c>
       <c r="R39" t="n">
-        <v>7299414.624737519</v>
+        <v>7299492.65569081</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5113,10 +5112,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111866994</v>
+        <v>111867030</v>
       </c>
       <c r="B40" t="n">
-        <v>90709</v>
+        <v>95538</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5125,30 +5124,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5448</v>
+        <v>221941</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>703114.8550411762</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R40" t="n">
-        <v>7299511.445840456</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -1733,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111867696</v>
+        <v>111866919</v>
       </c>
       <c r="B11" t="n">
-        <v>90660</v>
+        <v>90689</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,21 +1749,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>5966</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1776,10 +1776,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703310.8095286442</v>
+        <v>703070.5942336121</v>
       </c>
       <c r="R11" t="n">
-        <v>7299298.053094583</v>
+        <v>7299535.948440861</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111866919</v>
+        <v>111867661</v>
       </c>
       <c r="B12" t="n">
-        <v>90689</v>
+        <v>73692</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1865,21 +1865,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5966</v>
+        <v>310</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1892,10 +1892,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703070.5942336121</v>
+        <v>703308.4646664646</v>
       </c>
       <c r="R12" t="n">
-        <v>7299535.948440861</v>
+        <v>7299302.011735545</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111867661</v>
+        <v>111867696</v>
       </c>
       <c r="B13" t="n">
-        <v>73692</v>
+        <v>90660</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1981,21 +1981,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>310</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703308.4646664646</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R13" t="n">
-        <v>7299302.011735545</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111867419</v>
+        <v>111867007</v>
       </c>
       <c r="B17" t="n">
-        <v>90658</v>
+        <v>90709</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2445,21 +2445,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>703159.5881134692</v>
+        <v>703070.0396593859</v>
       </c>
       <c r="R17" t="n">
-        <v>7299375.205745419</v>
+        <v>7299502.915184345</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2545,10 +2545,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111867007</v>
+        <v>111867419</v>
       </c>
       <c r="B18" t="n">
-        <v>90709</v>
+        <v>90658</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2561,21 +2561,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5448</v>
+        <v>4361</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2588,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>703070.0396593859</v>
+        <v>703159.5881134692</v>
       </c>
       <c r="R18" t="n">
-        <v>7299502.915184345</v>
+        <v>7299375.205745419</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111867403</v>
+        <v>111867075</v>
       </c>
       <c r="B36" t="n">
         <v>90660</v>
@@ -4691,10 +4691,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>703140.5813816102</v>
+        <v>703079.296544011</v>
       </c>
       <c r="R36" t="n">
-        <v>7299387.059685718</v>
+        <v>7299482.94824858</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111867075</v>
+        <v>111866994</v>
       </c>
       <c r="B37" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4780,21 +4780,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4807,10 +4807,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>703079.296544011</v>
+        <v>703114.8550411762</v>
       </c>
       <c r="R37" t="n">
-        <v>7299482.94824858</v>
+        <v>7299511.445840456</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111866994</v>
+        <v>111867403</v>
       </c>
       <c r="B38" t="n">
-        <v>90709</v>
+        <v>90660</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4896,21 +4896,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4923,10 +4923,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>703114.8550411762</v>
+        <v>703140.5813816102</v>
       </c>
       <c r="R38" t="n">
-        <v>7299511.445840456</v>
+        <v>7299387.059685718</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -1153,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111867104</v>
+        <v>111867059</v>
       </c>
       <c r="B6" t="n">
-        <v>90709</v>
+        <v>77267</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,21 +1169,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5448</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703082.5451022713</v>
+        <v>703135.1269184008</v>
       </c>
       <c r="R6" t="n">
-        <v>7299472.042296089</v>
+        <v>7299505.043446576</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111867750</v>
+        <v>111866960</v>
       </c>
       <c r="B7" t="n">
-        <v>90682</v>
+        <v>90658</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,21 +1285,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2059</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703230.3439029651</v>
+        <v>703098.9329420771</v>
       </c>
       <c r="R7" t="n">
-        <v>7299262.248702347</v>
+        <v>7299526.404463467</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111867494</v>
+        <v>111867442</v>
       </c>
       <c r="B8" t="n">
         <v>90652</v>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703166.5193559844</v>
+        <v>703126.971377191</v>
       </c>
       <c r="R8" t="n">
-        <v>7299306.403931977</v>
+        <v>7299357.638222828</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111867055</v>
+        <v>111867708</v>
       </c>
       <c r="B9" t="n">
-        <v>78107</v>
+        <v>5113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1513,30 +1513,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6453</v>
+        <v>100526</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1544,10 +1550,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703135.8905520557</v>
+        <v>703302.994579477</v>
       </c>
       <c r="R9" t="n">
-        <v>7299505.922315865</v>
+        <v>7299285.950966947</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1617,10 +1623,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111866871</v>
+        <v>111867750</v>
       </c>
       <c r="B10" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,21 +1639,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1660,10 +1666,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>703075.8558040321</v>
+        <v>703230.3439029651</v>
       </c>
       <c r="R10" t="n">
-        <v>7299584.161187203</v>
+        <v>7299262.248702347</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,10 +1739,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111866919</v>
+        <v>111867007</v>
       </c>
       <c r="B11" t="n">
-        <v>90689</v>
+        <v>90709</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,21 +1755,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1776,10 +1782,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703070.5942336121</v>
+        <v>703070.0396593859</v>
       </c>
       <c r="R11" t="n">
-        <v>7299535.948440861</v>
+        <v>7299502.915184345</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1849,10 +1855,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111867661</v>
+        <v>111867014</v>
       </c>
       <c r="B12" t="n">
-        <v>73692</v>
+        <v>90660</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1865,21 +1871,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>310</v>
+        <v>4362</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1892,10 +1898,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703308.4646664646</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R12" t="n">
-        <v>7299302.011735545</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1965,10 +1971,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111867696</v>
+        <v>111867055</v>
       </c>
       <c r="B13" t="n">
-        <v>90660</v>
+        <v>78107</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1981,21 +1987,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4362</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2008,10 +2014,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703310.8095286442</v>
+        <v>703135.8905520557</v>
       </c>
       <c r="R13" t="n">
-        <v>7299298.053094583</v>
+        <v>7299505.922315865</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2081,10 +2087,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111867253</v>
+        <v>111866982</v>
       </c>
       <c r="B14" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,21 +2103,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2124,10 +2130,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703122.1153461011</v>
+        <v>703115.6367589685</v>
       </c>
       <c r="R14" t="n">
-        <v>7299414.624737519</v>
+        <v>7299535.421832842</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2197,10 +2203,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111867456</v>
+        <v>111867661</v>
       </c>
       <c r="B15" t="n">
-        <v>90652</v>
+        <v>73692</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2213,21 +2219,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3100</v>
+        <v>310</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2240,10 +2246,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>703128.9005519629</v>
+        <v>703308.4646664646</v>
       </c>
       <c r="R15" t="n">
-        <v>7299347.87584792</v>
+        <v>7299302.011735545</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2313,7 +2319,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111867113</v>
+        <v>111867094</v>
       </c>
       <c r="B16" t="n">
         <v>90660</v>
@@ -2356,10 +2362,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>703089.4959027101</v>
+        <v>703078.4122161027</v>
       </c>
       <c r="R16" t="n">
-        <v>7299467.172166394</v>
+        <v>7299477.936543548</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2429,10 +2435,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111867007</v>
+        <v>111867075</v>
       </c>
       <c r="B17" t="n">
-        <v>90709</v>
+        <v>90660</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2445,21 +2451,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2472,10 +2478,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>703070.0396593859</v>
+        <v>703079.296544011</v>
       </c>
       <c r="R17" t="n">
-        <v>7299502.915184345</v>
+        <v>7299482.94824858</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2661,10 +2667,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111866982</v>
+        <v>111867253</v>
       </c>
       <c r="B19" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,21 +2683,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2704,10 +2710,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>703115.6367589685</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R19" t="n">
-        <v>7299535.421832842</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2777,10 +2783,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111867014</v>
+        <v>111867119</v>
       </c>
       <c r="B20" t="n">
-        <v>90660</v>
+        <v>88489</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2793,21 +2799,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2820,10 +2826,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>703118.8428476704</v>
+        <v>703180.3354239021</v>
       </c>
       <c r="R20" t="n">
-        <v>7299507.603590234</v>
+        <v>7299490.506841285</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2893,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111867271</v>
+        <v>111867066</v>
       </c>
       <c r="B21" t="n">
-        <v>95538</v>
+        <v>90652</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2905,31 +2911,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2937,10 +2942,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>703122.1153461011</v>
+        <v>703117.4226217524</v>
       </c>
       <c r="R21" t="n">
-        <v>7299414.624737519</v>
+        <v>7299492.65569081</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3010,10 +3015,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111867059</v>
+        <v>111867104</v>
       </c>
       <c r="B22" t="n">
-        <v>77267</v>
+        <v>90709</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3026,21 +3031,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6446</v>
+        <v>5448</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3053,10 +3058,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>703135.1269184008</v>
+        <v>703082.5451022713</v>
       </c>
       <c r="R22" t="n">
-        <v>7299505.043446576</v>
+        <v>7299472.042296089</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3126,10 +3131,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111868139</v>
+        <v>111866871</v>
       </c>
       <c r="B23" t="n">
-        <v>77597</v>
+        <v>90652</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3142,21 +3147,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>864</v>
+        <v>3100</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3169,10 +3174,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>703310.8095286442</v>
+        <v>703075.8558040321</v>
       </c>
       <c r="R23" t="n">
-        <v>7299298.053094583</v>
+        <v>7299584.161187203</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3242,7 +3247,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111867094</v>
+        <v>111867696</v>
       </c>
       <c r="B24" t="n">
         <v>90660</v>
@@ -3285,10 +3290,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>703078.4122161027</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R24" t="n">
-        <v>7299477.936543548</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3358,10 +3363,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111867708</v>
+        <v>111867735</v>
       </c>
       <c r="B25" t="n">
-        <v>5113</v>
+        <v>90652</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3370,36 +3375,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100526</v>
+        <v>3100</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3407,10 +3406,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>703302.994579477</v>
+        <v>703215.6669113962</v>
       </c>
       <c r="R25" t="n">
-        <v>7299285.950966947</v>
+        <v>7299218.726026188</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3480,10 +3479,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111867682</v>
+        <v>111867271</v>
       </c>
       <c r="B26" t="n">
-        <v>90682</v>
+        <v>95538</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3492,30 +3491,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2059</v>
+        <v>221941</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3523,10 +3523,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>703310.8095286442</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R26" t="n">
-        <v>7299298.053094583</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3596,10 +3596,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111867347</v>
+        <v>111868139</v>
       </c>
       <c r="B27" t="n">
-        <v>90682</v>
+        <v>77597</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3612,21 +3612,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2059</v>
+        <v>864</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3639,10 +3639,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>703129.4972059733</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R27" t="n">
-        <v>7299397.824206996</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3712,10 +3712,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111867520</v>
+        <v>111867326</v>
       </c>
       <c r="B28" t="n">
-        <v>90854</v>
+        <v>90652</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3728,21 +3728,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2079</v>
+        <v>3100</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3755,10 +3755,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>703304.5925224626</v>
+        <v>703121.4342242506</v>
       </c>
       <c r="R28" t="n">
-        <v>7299304.212422617</v>
+        <v>7299406.740167543</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3828,10 +3828,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111867442</v>
+        <v>111867473</v>
       </c>
       <c r="B29" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3844,21 +3844,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3871,10 +3871,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>703126.971377191</v>
+        <v>703142.4611243972</v>
       </c>
       <c r="R29" t="n">
-        <v>7299357.638222828</v>
+        <v>7299313.776343916</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111867473</v>
+        <v>111867456</v>
       </c>
       <c r="B30" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3960,21 +3960,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3987,10 +3987,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>703142.4611243972</v>
+        <v>703128.9005519629</v>
       </c>
       <c r="R30" t="n">
-        <v>7299313.776343916</v>
+        <v>7299347.87584792</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111867186</v>
+        <v>111867682</v>
       </c>
       <c r="B31" t="n">
-        <v>90678</v>
+        <v>90682</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4072,37 +4072,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4366</v>
+        <v>2059</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
@@ -4111,10 +4103,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>703113.0030864173</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R31" t="n">
-        <v>7299432.540119915</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4184,10 +4176,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111867119</v>
+        <v>111867030</v>
       </c>
       <c r="B32" t="n">
-        <v>88489</v>
+        <v>95538</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4196,30 +4188,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1962</v>
+        <v>221941</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4227,10 +4220,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>703180.3354239021</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R32" t="n">
-        <v>7299490.506841285</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4300,10 +4293,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111866960</v>
+        <v>111867186</v>
       </c>
       <c r="B33" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4312,29 +4305,37 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4343,10 +4344,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>703098.9329420771</v>
+        <v>703113.0030864173</v>
       </c>
       <c r="R33" t="n">
-        <v>7299526.404463467</v>
+        <v>7299432.540119915</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4416,10 +4417,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111867735</v>
+        <v>111866994</v>
       </c>
       <c r="B34" t="n">
-        <v>90652</v>
+        <v>90709</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4432,21 +4433,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3100</v>
+        <v>5448</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4459,10 +4460,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>703215.6669113962</v>
+        <v>703114.8550411762</v>
       </c>
       <c r="R34" t="n">
-        <v>7299218.726026188</v>
+        <v>7299511.445840456</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4532,10 +4533,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111867326</v>
+        <v>111867403</v>
       </c>
       <c r="B35" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4548,21 +4549,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4575,10 +4576,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>703121.4342242506</v>
+        <v>703140.5813816102</v>
       </c>
       <c r="R35" t="n">
-        <v>7299406.740167543</v>
+        <v>7299387.059685718</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4648,10 +4649,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111867075</v>
+        <v>111867494</v>
       </c>
       <c r="B36" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4664,21 +4665,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4691,10 +4692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>703079.296544011</v>
+        <v>703166.5193559844</v>
       </c>
       <c r="R36" t="n">
-        <v>7299482.94824858</v>
+        <v>7299306.403931977</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4764,10 +4765,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111866994</v>
+        <v>111866919</v>
       </c>
       <c r="B37" t="n">
-        <v>90709</v>
+        <v>90689</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4780,21 +4781,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5448</v>
+        <v>5966</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4807,10 +4808,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>703114.8550411762</v>
+        <v>703070.5942336121</v>
       </c>
       <c r="R37" t="n">
-        <v>7299511.445840456</v>
+        <v>7299535.948440861</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4880,7 +4881,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111867403</v>
+        <v>111867113</v>
       </c>
       <c r="B38" t="n">
         <v>90660</v>
@@ -4923,10 +4924,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>703140.5813816102</v>
+        <v>703089.4959027101</v>
       </c>
       <c r="R38" t="n">
-        <v>7299387.059685718</v>
+        <v>7299467.172166394</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4996,10 +4997,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111867066</v>
+        <v>111867520</v>
       </c>
       <c r="B39" t="n">
-        <v>90652</v>
+        <v>90854</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5012,21 +5013,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3100</v>
+        <v>2079</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5039,10 +5040,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>703117.4226217524</v>
+        <v>703304.5925224626</v>
       </c>
       <c r="R39" t="n">
-        <v>7299492.65569081</v>
+        <v>7299304.212422617</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5112,10 +5113,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111867030</v>
+        <v>111867347</v>
       </c>
       <c r="B40" t="n">
-        <v>95538</v>
+        <v>90682</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5124,31 +5125,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221941</v>
+        <v>2059</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>703118.8428476704</v>
+        <v>703129.4972059733</v>
       </c>
       <c r="R40" t="n">
-        <v>7299507.603590234</v>
+        <v>7299397.824206996</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -2087,10 +2087,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111866982</v>
+        <v>111867661</v>
       </c>
       <c r="B14" t="n">
-        <v>90682</v>
+        <v>73692</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2103,21 +2103,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2059</v>
+        <v>310</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703115.6367589685</v>
+        <v>703308.4646664646</v>
       </c>
       <c r="R14" t="n">
-        <v>7299535.421832842</v>
+        <v>7299302.011735545</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111867661</v>
+        <v>111866982</v>
       </c>
       <c r="B15" t="n">
-        <v>73692</v>
+        <v>90682</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2219,21 +2219,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>310</v>
+        <v>2059</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2246,10 +2246,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>703308.4646664646</v>
+        <v>703115.6367589685</v>
       </c>
       <c r="R15" t="n">
-        <v>7299302.011735545</v>
+        <v>7299535.421832842</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -3944,10 +3944,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111867456</v>
+        <v>111867030</v>
       </c>
       <c r="B30" t="n">
-        <v>90652</v>
+        <v>95538</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3956,30 +3956,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3100</v>
+        <v>221941</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3987,10 +3988,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>703128.9005519629</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R30" t="n">
-        <v>7299347.87584792</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4060,10 +4061,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111867682</v>
+        <v>111867456</v>
       </c>
       <c r="B31" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4076,21 +4077,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4103,10 +4104,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>703310.8095286442</v>
+        <v>703128.9005519629</v>
       </c>
       <c r="R31" t="n">
-        <v>7299298.053094583</v>
+        <v>7299347.87584792</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4176,10 +4177,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111867030</v>
+        <v>111867682</v>
       </c>
       <c r="B32" t="n">
-        <v>95538</v>
+        <v>90682</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4188,31 +4189,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221941</v>
+        <v>2059</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>703118.8428476704</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R32" t="n">
-        <v>7299507.603590234</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -1153,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111867059</v>
+        <v>111867403</v>
       </c>
       <c r="B6" t="n">
-        <v>77267</v>
+        <v>90660</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,21 +1169,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>4362</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703135.1269184008</v>
+        <v>703140.5813816102</v>
       </c>
       <c r="R6" t="n">
-        <v>7299505.043446576</v>
+        <v>7299387.059685718</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111866960</v>
+        <v>111867055</v>
       </c>
       <c r="B7" t="n">
-        <v>90658</v>
+        <v>78107</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,21 +1285,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703098.9329420771</v>
+        <v>703135.8905520557</v>
       </c>
       <c r="R7" t="n">
-        <v>7299526.404463467</v>
+        <v>7299505.922315865</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,7 +1385,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111867442</v>
+        <v>111867494</v>
       </c>
       <c r="B8" t="n">
         <v>90652</v>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703126.971377191</v>
+        <v>703166.5193559844</v>
       </c>
       <c r="R8" t="n">
-        <v>7299357.638222828</v>
+        <v>7299306.403931977</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111867708</v>
+        <v>111867113</v>
       </c>
       <c r="B9" t="n">
-        <v>5113</v>
+        <v>90660</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1513,36 +1513,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100526</v>
+        <v>4362</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1550,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703302.994579477</v>
+        <v>703089.4959027101</v>
       </c>
       <c r="R9" t="n">
-        <v>7299285.950966947</v>
+        <v>7299467.172166394</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1623,7 +1617,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111867750</v>
+        <v>111867347</v>
       </c>
       <c r="B10" t="n">
         <v>90682</v>
@@ -1666,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>703230.3439029651</v>
+        <v>703129.4972059733</v>
       </c>
       <c r="R10" t="n">
-        <v>7299262.248702347</v>
+        <v>7299397.824206996</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1739,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111867007</v>
+        <v>111866960</v>
       </c>
       <c r="B11" t="n">
-        <v>90709</v>
+        <v>90658</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1755,21 +1749,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5448</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1782,10 +1776,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703070.0396593859</v>
+        <v>703098.9329420771</v>
       </c>
       <c r="R11" t="n">
-        <v>7299502.915184345</v>
+        <v>7299526.404463467</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1855,10 +1849,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111867014</v>
+        <v>111867066</v>
       </c>
       <c r="B12" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1871,21 +1865,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1898,10 +1892,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703118.8428476704</v>
+        <v>703117.4226217524</v>
       </c>
       <c r="R12" t="n">
-        <v>7299507.603590234</v>
+        <v>7299492.65569081</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1971,10 +1965,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111867055</v>
+        <v>111867007</v>
       </c>
       <c r="B13" t="n">
-        <v>78107</v>
+        <v>90709</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1987,21 +1981,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>5448</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2014,10 +2008,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703135.8905520557</v>
+        <v>703070.0396593859</v>
       </c>
       <c r="R13" t="n">
-        <v>7299505.922315865</v>
+        <v>7299502.915184345</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2087,10 +2081,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111867661</v>
+        <v>111867075</v>
       </c>
       <c r="B14" t="n">
-        <v>73692</v>
+        <v>90660</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2103,21 +2097,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>310</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2130,10 +2124,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703308.4646664646</v>
+        <v>703079.296544011</v>
       </c>
       <c r="R14" t="n">
-        <v>7299302.011735545</v>
+        <v>7299482.94824858</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2203,10 +2197,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111866982</v>
+        <v>111866871</v>
       </c>
       <c r="B15" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2219,21 +2213,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2246,10 +2240,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>703115.6367589685</v>
+        <v>703075.8558040321</v>
       </c>
       <c r="R15" t="n">
-        <v>7299535.421832842</v>
+        <v>7299584.161187203</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2319,10 +2313,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111867094</v>
+        <v>111867708</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>5113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2331,30 +2325,36 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>100526</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>703078.4122161027</v>
+        <v>703302.994579477</v>
       </c>
       <c r="R16" t="n">
-        <v>7299477.936543548</v>
+        <v>7299285.950966947</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2435,10 +2435,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111867075</v>
+        <v>111867271</v>
       </c>
       <c r="B17" t="n">
-        <v>90660</v>
+        <v>95538</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2447,30 +2447,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4362</v>
+        <v>221941</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2478,10 +2479,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>703079.296544011</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R17" t="n">
-        <v>7299482.94824858</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2551,10 +2552,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111867419</v>
+        <v>111866994</v>
       </c>
       <c r="B18" t="n">
-        <v>90658</v>
+        <v>90709</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2567,21 +2568,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2594,10 +2595,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>703159.5881134692</v>
+        <v>703114.8550411762</v>
       </c>
       <c r="R18" t="n">
-        <v>7299375.205745419</v>
+        <v>7299511.445840456</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2667,7 +2668,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111867253</v>
+        <v>111867456</v>
       </c>
       <c r="B19" t="n">
         <v>90652</v>
@@ -2710,10 +2711,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>703122.1153461011</v>
+        <v>703128.9005519629</v>
       </c>
       <c r="R19" t="n">
-        <v>7299414.624737519</v>
+        <v>7299347.87584792</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2899,10 +2900,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111867066</v>
+        <v>111867186</v>
       </c>
       <c r="B21" t="n">
-        <v>90652</v>
+        <v>90678</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2911,29 +2912,37 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3100</v>
+        <v>4366</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
@@ -2942,10 +2951,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>703117.4226217524</v>
+        <v>703113.0030864173</v>
       </c>
       <c r="R21" t="n">
-        <v>7299492.65569081</v>
+        <v>7299432.540119915</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3015,10 +3024,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111867104</v>
+        <v>111867520</v>
       </c>
       <c r="B22" t="n">
-        <v>90709</v>
+        <v>90854</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3031,21 +3040,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5448</v>
+        <v>2079</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3058,10 +3067,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>703082.5451022713</v>
+        <v>703304.5925224626</v>
       </c>
       <c r="R22" t="n">
-        <v>7299472.042296089</v>
+        <v>7299304.212422617</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3131,7 +3140,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111866871</v>
+        <v>111867735</v>
       </c>
       <c r="B23" t="n">
         <v>90652</v>
@@ -3174,10 +3183,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>703075.8558040321</v>
+        <v>703215.6669113962</v>
       </c>
       <c r="R23" t="n">
-        <v>7299584.161187203</v>
+        <v>7299218.726026188</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3247,10 +3256,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111867696</v>
+        <v>111867750</v>
       </c>
       <c r="B24" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3263,21 +3272,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3290,10 +3299,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>703310.8095286442</v>
+        <v>703230.3439029651</v>
       </c>
       <c r="R24" t="n">
-        <v>7299298.053094583</v>
+        <v>7299262.248702347</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3363,10 +3372,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111867735</v>
+        <v>111866919</v>
       </c>
       <c r="B25" t="n">
-        <v>90652</v>
+        <v>90689</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3379,21 +3388,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3100</v>
+        <v>5966</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3406,10 +3415,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>703215.6669113962</v>
+        <v>703070.5942336121</v>
       </c>
       <c r="R25" t="n">
-        <v>7299218.726026188</v>
+        <v>7299535.948440861</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3479,10 +3488,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111867271</v>
+        <v>111867682</v>
       </c>
       <c r="B26" t="n">
-        <v>95538</v>
+        <v>90682</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3491,31 +3500,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221941</v>
+        <v>2059</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3523,10 +3531,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>703122.1153461011</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R26" t="n">
-        <v>7299414.624737519</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3596,10 +3604,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111868139</v>
+        <v>111867661</v>
       </c>
       <c r="B27" t="n">
-        <v>77597</v>
+        <v>73692</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3612,21 +3620,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>864</v>
+        <v>310</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3639,10 +3647,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>703310.8095286442</v>
+        <v>703308.4646664646</v>
       </c>
       <c r="R27" t="n">
-        <v>7299298.053094583</v>
+        <v>7299302.011735545</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3712,7 +3720,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111867326</v>
+        <v>111867442</v>
       </c>
       <c r="B28" t="n">
         <v>90652</v>
@@ -3755,10 +3763,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>703121.4342242506</v>
+        <v>703126.971377191</v>
       </c>
       <c r="R28" t="n">
-        <v>7299406.740167543</v>
+        <v>7299357.638222828</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3944,10 +3952,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111867030</v>
+        <v>111867326</v>
       </c>
       <c r="B30" t="n">
-        <v>95538</v>
+        <v>90652</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3956,31 +3964,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3988,10 +3995,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>703118.8428476704</v>
+        <v>703121.4342242506</v>
       </c>
       <c r="R30" t="n">
-        <v>7299507.603590234</v>
+        <v>7299406.740167543</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4061,10 +4068,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111867456</v>
+        <v>111867094</v>
       </c>
       <c r="B31" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4077,21 +4084,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4104,10 +4111,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>703128.9005519629</v>
+        <v>703078.4122161027</v>
       </c>
       <c r="R31" t="n">
-        <v>7299347.87584792</v>
+        <v>7299477.936543548</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4177,10 +4184,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111867682</v>
+        <v>111867014</v>
       </c>
       <c r="B32" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4193,21 +4200,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4220,10 +4227,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>703310.8095286442</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R32" t="n">
-        <v>7299298.053094583</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4293,10 +4300,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111867186</v>
+        <v>111867253</v>
       </c>
       <c r="B33" t="n">
-        <v>90678</v>
+        <v>90652</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4305,37 +4312,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4366</v>
+        <v>3100</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Schmidt : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
@@ -4344,10 +4343,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>703113.0030864173</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R33" t="n">
-        <v>7299432.540119915</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4417,10 +4416,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111866994</v>
+        <v>111867696</v>
       </c>
       <c r="B34" t="n">
-        <v>90709</v>
+        <v>90660</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4433,21 +4432,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4460,10 +4459,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>703114.8550411762</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R34" t="n">
-        <v>7299511.445840456</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4533,10 +4532,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111867403</v>
+        <v>111867104</v>
       </c>
       <c r="B35" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4549,21 +4548,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4576,10 +4575,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>703140.5813816102</v>
+        <v>703082.5451022713</v>
       </c>
       <c r="R35" t="n">
-        <v>7299387.059685718</v>
+        <v>7299472.042296089</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4649,10 +4648,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111867494</v>
+        <v>111867419</v>
       </c>
       <c r="B36" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4665,21 +4664,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4692,10 +4691,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>703166.5193559844</v>
+        <v>703159.5881134692</v>
       </c>
       <c r="R36" t="n">
-        <v>7299306.403931977</v>
+        <v>7299375.205745419</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4765,10 +4764,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111866919</v>
+        <v>111867059</v>
       </c>
       <c r="B37" t="n">
-        <v>90689</v>
+        <v>77267</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4781,21 +4780,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5966</v>
+        <v>6446</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4808,10 +4807,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>703070.5942336121</v>
+        <v>703135.1269184008</v>
       </c>
       <c r="R37" t="n">
-        <v>7299535.948440861</v>
+        <v>7299505.043446576</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4881,10 +4880,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111867113</v>
+        <v>111868139</v>
       </c>
       <c r="B38" t="n">
-        <v>90660</v>
+        <v>77597</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4897,21 +4896,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4362</v>
+        <v>864</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4924,10 +4923,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>703089.4959027101</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R38" t="n">
-        <v>7299467.172166394</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4997,10 +4996,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111867520</v>
+        <v>111866982</v>
       </c>
       <c r="B39" t="n">
-        <v>90854</v>
+        <v>90682</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5013,21 +5012,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2079</v>
+        <v>2059</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5040,10 +5039,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>703304.5925224626</v>
+        <v>703115.6367589685</v>
       </c>
       <c r="R39" t="n">
-        <v>7299304.212422617</v>
+        <v>7299535.421832842</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5113,10 +5112,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111867347</v>
+        <v>111867030</v>
       </c>
       <c r="B40" t="n">
-        <v>90682</v>
+        <v>95538</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5125,30 +5124,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2059</v>
+        <v>221941</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>703129.4972059733</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R40" t="n">
-        <v>7299397.824206996</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -1501,10 +1501,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111867113</v>
+        <v>111867066</v>
       </c>
       <c r="B9" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1517,21 +1517,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1544,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703089.4959027101</v>
+        <v>703117.4226217524</v>
       </c>
       <c r="R9" t="n">
-        <v>7299467.172166394</v>
+        <v>7299492.65569081</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111867347</v>
+        <v>111867007</v>
       </c>
       <c r="B10" t="n">
-        <v>90682</v>
+        <v>90709</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,21 +1633,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2059</v>
+        <v>5448</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1660,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>703129.4972059733</v>
+        <v>703070.0396593859</v>
       </c>
       <c r="R10" t="n">
-        <v>7299397.824206996</v>
+        <v>7299502.915184345</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111866960</v>
+        <v>111867075</v>
       </c>
       <c r="B11" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,21 +1749,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1776,10 +1776,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703098.9329420771</v>
+        <v>703079.296544011</v>
       </c>
       <c r="R11" t="n">
-        <v>7299526.404463467</v>
+        <v>7299482.94824858</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1849,10 +1849,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111867066</v>
+        <v>111867113</v>
       </c>
       <c r="B12" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1865,21 +1865,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1892,10 +1892,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703117.4226217524</v>
+        <v>703089.4959027101</v>
       </c>
       <c r="R12" t="n">
-        <v>7299492.65569081</v>
+        <v>7299467.172166394</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111867007</v>
+        <v>111866871</v>
       </c>
       <c r="B13" t="n">
-        <v>90709</v>
+        <v>90652</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1981,21 +1981,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5448</v>
+        <v>3100</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703070.0396593859</v>
+        <v>703075.8558040321</v>
       </c>
       <c r="R13" t="n">
-        <v>7299502.915184345</v>
+        <v>7299584.161187203</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2081,10 +2081,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111867075</v>
+        <v>111867347</v>
       </c>
       <c r="B14" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,21 +2097,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703079.296544011</v>
+        <v>703129.4972059733</v>
       </c>
       <c r="R14" t="n">
-        <v>7299482.94824858</v>
+        <v>7299397.824206996</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2197,10 +2197,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111866871</v>
+        <v>111866960</v>
       </c>
       <c r="B15" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2213,21 +2213,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2240,10 +2240,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>703075.8558040321</v>
+        <v>703098.9329420771</v>
       </c>
       <c r="R15" t="n">
-        <v>7299584.161187203</v>
+        <v>7299526.404463467</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -1153,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111867403</v>
+        <v>111867007</v>
       </c>
       <c r="B6" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,21 +1169,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703140.5813816102</v>
+        <v>703070.0396593859</v>
       </c>
       <c r="R6" t="n">
-        <v>7299387.059685718</v>
+        <v>7299502.915184345</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111867055</v>
+        <v>111867186</v>
       </c>
       <c r="B7" t="n">
-        <v>78107</v>
+        <v>90678</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,29 +1281,37 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>4366</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1312,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703135.8905520557</v>
+        <v>703113.0030864173</v>
       </c>
       <c r="R7" t="n">
-        <v>7299505.922315865</v>
+        <v>7299432.540119915</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,10 +1393,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111867494</v>
+        <v>111867271</v>
       </c>
       <c r="B8" t="n">
-        <v>90652</v>
+        <v>95538</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1397,30 +1405,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3100</v>
+        <v>221941</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1428,10 +1437,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703166.5193559844</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R8" t="n">
-        <v>7299306.403931977</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1501,10 +1510,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111867066</v>
+        <v>111867014</v>
       </c>
       <c r="B9" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1517,21 +1526,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1544,10 +1553,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703117.4226217524</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R9" t="n">
-        <v>7299492.65569081</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1617,10 +1626,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111867007</v>
+        <v>111868139</v>
       </c>
       <c r="B10" t="n">
-        <v>90709</v>
+        <v>77597</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,21 +1642,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5448</v>
+        <v>864</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1660,10 +1669,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>703070.0396593859</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R10" t="n">
-        <v>7299502.915184345</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,10 +1742,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111867075</v>
+        <v>111867347</v>
       </c>
       <c r="B11" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,21 +1758,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1776,10 +1785,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703079.296544011</v>
+        <v>703129.4972059733</v>
       </c>
       <c r="R11" t="n">
-        <v>7299482.94824858</v>
+        <v>7299397.824206996</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1849,10 +1858,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111867113</v>
+        <v>111867066</v>
       </c>
       <c r="B12" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1865,21 +1874,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1892,10 +1901,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703089.4959027101</v>
+        <v>703117.4226217524</v>
       </c>
       <c r="R12" t="n">
-        <v>7299467.172166394</v>
+        <v>7299492.65569081</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1965,10 +1974,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111866871</v>
+        <v>111866960</v>
       </c>
       <c r="B13" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1981,21 +1990,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2008,10 +2017,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703075.8558040321</v>
+        <v>703098.9329420771</v>
       </c>
       <c r="R13" t="n">
-        <v>7299584.161187203</v>
+        <v>7299526.404463467</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2081,10 +2090,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111867347</v>
+        <v>111867030</v>
       </c>
       <c r="B14" t="n">
-        <v>90682</v>
+        <v>95538</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2093,30 +2102,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2059</v>
+        <v>221941</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2124,10 +2134,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703129.4972059733</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R14" t="n">
-        <v>7299397.824206996</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2197,10 +2207,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111866960</v>
+        <v>111867055</v>
       </c>
       <c r="B15" t="n">
-        <v>90658</v>
+        <v>78107</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2213,21 +2223,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2240,10 +2250,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>703098.9329420771</v>
+        <v>703135.8905520557</v>
       </c>
       <c r="R15" t="n">
-        <v>7299526.404463467</v>
+        <v>7299505.922315865</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2313,10 +2323,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111867708</v>
+        <v>111867696</v>
       </c>
       <c r="B16" t="n">
-        <v>5113</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2325,36 +2335,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100526</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2362,10 +2366,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>703302.994579477</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R16" t="n">
-        <v>7299285.950966947</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2435,10 +2439,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111867271</v>
+        <v>111867442</v>
       </c>
       <c r="B17" t="n">
-        <v>95538</v>
+        <v>90652</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2447,31 +2451,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2479,10 +2482,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>703122.1153461011</v>
+        <v>703126.971377191</v>
       </c>
       <c r="R17" t="n">
-        <v>7299414.624737519</v>
+        <v>7299357.638222828</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2552,10 +2555,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111866994</v>
+        <v>111867661</v>
       </c>
       <c r="B18" t="n">
-        <v>90709</v>
+        <v>73692</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2568,21 +2571,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5448</v>
+        <v>310</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2595,10 +2598,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>703114.8550411762</v>
+        <v>703308.4646664646</v>
       </c>
       <c r="R18" t="n">
-        <v>7299511.445840456</v>
+        <v>7299302.011735545</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2668,10 +2671,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111867456</v>
+        <v>111867094</v>
       </c>
       <c r="B19" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2684,21 +2687,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2711,10 +2714,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>703128.9005519629</v>
+        <v>703078.4122161027</v>
       </c>
       <c r="R19" t="n">
-        <v>7299347.87584792</v>
+        <v>7299477.936543548</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2784,10 +2787,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111867119</v>
+        <v>111867253</v>
       </c>
       <c r="B20" t="n">
-        <v>88489</v>
+        <v>90652</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2800,21 +2803,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1962</v>
+        <v>3100</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2827,10 +2830,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>703180.3354239021</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R20" t="n">
-        <v>7299490.506841285</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2900,10 +2903,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111867186</v>
+        <v>111867419</v>
       </c>
       <c r="B21" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2912,37 +2915,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
@@ -2951,10 +2946,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>703113.0030864173</v>
+        <v>703159.5881134692</v>
       </c>
       <c r="R21" t="n">
-        <v>7299432.540119915</v>
+        <v>7299375.205745419</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3024,10 +3019,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111867520</v>
+        <v>111867750</v>
       </c>
       <c r="B22" t="n">
-        <v>90854</v>
+        <v>90682</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3040,21 +3035,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2079</v>
+        <v>2059</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3067,10 +3062,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>703304.5925224626</v>
+        <v>703230.3439029651</v>
       </c>
       <c r="R22" t="n">
-        <v>7299304.212422617</v>
+        <v>7299262.248702347</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3140,7 +3135,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111867735</v>
+        <v>111867456</v>
       </c>
       <c r="B23" t="n">
         <v>90652</v>
@@ -3183,10 +3178,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>703215.6669113962</v>
+        <v>703128.9005519629</v>
       </c>
       <c r="R23" t="n">
-        <v>7299218.726026188</v>
+        <v>7299347.87584792</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3256,10 +3251,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111867750</v>
+        <v>111866871</v>
       </c>
       <c r="B24" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3272,21 +3267,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3299,10 +3294,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>703230.3439029651</v>
+        <v>703075.8558040321</v>
       </c>
       <c r="R24" t="n">
-        <v>7299262.248702347</v>
+        <v>7299584.161187203</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3372,10 +3367,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111866919</v>
+        <v>111866994</v>
       </c>
       <c r="B25" t="n">
-        <v>90689</v>
+        <v>90709</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3388,21 +3383,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5966</v>
+        <v>5448</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3415,10 +3410,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>703070.5942336121</v>
+        <v>703114.8550411762</v>
       </c>
       <c r="R25" t="n">
-        <v>7299535.948440861</v>
+        <v>7299511.445840456</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3488,10 +3483,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111867682</v>
+        <v>111867494</v>
       </c>
       <c r="B26" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3504,21 +3499,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3531,10 +3526,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>703310.8095286442</v>
+        <v>703166.5193559844</v>
       </c>
       <c r="R26" t="n">
-        <v>7299298.053094583</v>
+        <v>7299306.403931977</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3604,10 +3599,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111867661</v>
+        <v>111867104</v>
       </c>
       <c r="B27" t="n">
-        <v>73692</v>
+        <v>90709</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3620,21 +3615,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>310</v>
+        <v>5448</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3647,10 +3642,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>703308.4646664646</v>
+        <v>703082.5451022713</v>
       </c>
       <c r="R27" t="n">
-        <v>7299302.011735545</v>
+        <v>7299472.042296089</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3720,10 +3715,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111867442</v>
+        <v>111867119</v>
       </c>
       <c r="B28" t="n">
-        <v>90652</v>
+        <v>88489</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3736,21 +3731,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3100</v>
+        <v>1962</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3763,10 +3758,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>703126.971377191</v>
+        <v>703180.3354239021</v>
       </c>
       <c r="R28" t="n">
-        <v>7299357.638222828</v>
+        <v>7299490.506841285</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3836,10 +3831,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111867473</v>
+        <v>111867735</v>
       </c>
       <c r="B29" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3852,21 +3847,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3879,10 +3874,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>703142.4611243972</v>
+        <v>703215.6669113962</v>
       </c>
       <c r="R29" t="n">
-        <v>7299313.776343916</v>
+        <v>7299218.726026188</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3952,10 +3947,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111867326</v>
+        <v>111867520</v>
       </c>
       <c r="B30" t="n">
-        <v>90652</v>
+        <v>90854</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3968,21 +3963,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3100</v>
+        <v>2079</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3995,10 +3990,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>703121.4342242506</v>
+        <v>703304.5925224626</v>
       </c>
       <c r="R30" t="n">
-        <v>7299406.740167543</v>
+        <v>7299304.212422617</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4068,10 +4063,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111867094</v>
+        <v>111867059</v>
       </c>
       <c r="B31" t="n">
-        <v>90660</v>
+        <v>77267</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4084,21 +4079,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4362</v>
+        <v>6446</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4111,10 +4106,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>703078.4122161027</v>
+        <v>703135.1269184008</v>
       </c>
       <c r="R31" t="n">
-        <v>7299477.936543548</v>
+        <v>7299505.043446576</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4184,7 +4179,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111867014</v>
+        <v>111867075</v>
       </c>
       <c r="B32" t="n">
         <v>90660</v>
@@ -4227,10 +4222,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>703118.8428476704</v>
+        <v>703079.296544011</v>
       </c>
       <c r="R32" t="n">
-        <v>7299507.603590234</v>
+        <v>7299482.94824858</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4300,10 +4295,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111867253</v>
+        <v>111867113</v>
       </c>
       <c r="B33" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4316,21 +4311,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4343,10 +4338,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>703122.1153461011</v>
+        <v>703089.4959027101</v>
       </c>
       <c r="R33" t="n">
-        <v>7299414.624737519</v>
+        <v>7299467.172166394</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4416,10 +4411,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111867696</v>
+        <v>111867326</v>
       </c>
       <c r="B34" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4432,21 +4427,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4459,10 +4454,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>703310.8095286442</v>
+        <v>703121.4342242506</v>
       </c>
       <c r="R34" t="n">
-        <v>7299298.053094583</v>
+        <v>7299406.740167543</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4532,10 +4527,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111867104</v>
+        <v>111867473</v>
       </c>
       <c r="B35" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4548,21 +4543,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4575,10 +4570,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>703082.5451022713</v>
+        <v>703142.4611243972</v>
       </c>
       <c r="R35" t="n">
-        <v>7299472.042296089</v>
+        <v>7299313.776343916</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4648,10 +4643,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111867419</v>
+        <v>111866919</v>
       </c>
       <c r="B36" t="n">
-        <v>90658</v>
+        <v>90689</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4664,21 +4659,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4361</v>
+        <v>5966</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4691,10 +4686,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>703159.5881134692</v>
+        <v>703070.5942336121</v>
       </c>
       <c r="R36" t="n">
-        <v>7299375.205745419</v>
+        <v>7299535.948440861</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4764,10 +4759,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111867059</v>
+        <v>111866982</v>
       </c>
       <c r="B37" t="n">
-        <v>77267</v>
+        <v>90682</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4780,21 +4775,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6446</v>
+        <v>2059</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4807,10 +4802,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>703135.1269184008</v>
+        <v>703115.6367589685</v>
       </c>
       <c r="R37" t="n">
-        <v>7299505.043446576</v>
+        <v>7299535.421832842</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4880,10 +4875,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111868139</v>
+        <v>111867708</v>
       </c>
       <c r="B38" t="n">
-        <v>77597</v>
+        <v>5113</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4892,30 +4887,36 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>864</v>
+        <v>100526</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4923,10 +4924,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>703310.8095286442</v>
+        <v>703302.994579477</v>
       </c>
       <c r="R38" t="n">
-        <v>7299298.053094583</v>
+        <v>7299285.950966947</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4996,10 +4997,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111866982</v>
+        <v>111867403</v>
       </c>
       <c r="B39" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5012,21 +5013,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5039,10 +5040,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>703115.6367589685</v>
+        <v>703140.5813816102</v>
       </c>
       <c r="R39" t="n">
-        <v>7299535.421832842</v>
+        <v>7299387.059685718</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5112,10 +5113,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111867030</v>
+        <v>111867682</v>
       </c>
       <c r="B40" t="n">
-        <v>95538</v>
+        <v>90682</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5124,31 +5125,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221941</v>
+        <v>2059</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>703118.8428476704</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R40" t="n">
-        <v>7299507.603590234</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -1153,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111867007</v>
+        <v>111867055</v>
       </c>
       <c r="B6" t="n">
-        <v>90709</v>
+        <v>78107</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,21 +1169,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5448</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703070.0396593859</v>
+        <v>703135.8905520557</v>
       </c>
       <c r="R6" t="n">
-        <v>7299502.915184345</v>
+        <v>7299505.922315865</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111867186</v>
+        <v>111867014</v>
       </c>
       <c r="B7" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,37 +1281,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
@@ -1320,10 +1312,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703113.0030864173</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R7" t="n">
-        <v>7299432.540119915</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1393,10 +1385,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111867271</v>
+        <v>111867696</v>
       </c>
       <c r="B8" t="n">
-        <v>95538</v>
+        <v>90660</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1405,31 +1397,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221941</v>
+        <v>4362</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1437,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703122.1153461011</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R8" t="n">
-        <v>7299414.624737519</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1510,10 +1501,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111867014</v>
+        <v>111867750</v>
       </c>
       <c r="B9" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1526,21 +1517,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1553,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703118.8428476704</v>
+        <v>703230.3439029651</v>
       </c>
       <c r="R9" t="n">
-        <v>7299507.603590234</v>
+        <v>7299262.248702347</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1626,10 +1617,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111868139</v>
+        <v>111867119</v>
       </c>
       <c r="B10" t="n">
-        <v>77597</v>
+        <v>88489</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1642,21 +1633,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>864</v>
+        <v>1962</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1669,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>703310.8095286442</v>
+        <v>703180.3354239021</v>
       </c>
       <c r="R10" t="n">
-        <v>7299298.053094583</v>
+        <v>7299490.506841285</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1742,7 +1733,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111867347</v>
+        <v>111866982</v>
       </c>
       <c r="B11" t="n">
         <v>90682</v>
@@ -1785,10 +1776,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703129.4972059733</v>
+        <v>703115.6367589685</v>
       </c>
       <c r="R11" t="n">
-        <v>7299397.824206996</v>
+        <v>7299535.421832842</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1858,7 +1849,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111867066</v>
+        <v>111867456</v>
       </c>
       <c r="B12" t="n">
         <v>90652</v>
@@ -1901,10 +1892,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703117.4226217524</v>
+        <v>703128.9005519629</v>
       </c>
       <c r="R12" t="n">
-        <v>7299492.65569081</v>
+        <v>7299347.87584792</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1974,10 +1965,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111866960</v>
+        <v>111866871</v>
       </c>
       <c r="B13" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1990,21 +1981,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2017,10 +2008,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703098.9329420771</v>
+        <v>703075.8558040321</v>
       </c>
       <c r="R13" t="n">
-        <v>7299526.404463467</v>
+        <v>7299584.161187203</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2090,7 +2081,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111867030</v>
+        <v>111867271</v>
       </c>
       <c r="B14" t="n">
         <v>95538</v>
@@ -2134,10 +2125,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703118.8428476704</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R14" t="n">
-        <v>7299507.603590234</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2207,10 +2198,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111867055</v>
+        <v>111866960</v>
       </c>
       <c r="B15" t="n">
-        <v>78107</v>
+        <v>90658</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2223,21 +2214,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6453</v>
+        <v>4361</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2250,10 +2241,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>703135.8905520557</v>
+        <v>703098.9329420771</v>
       </c>
       <c r="R15" t="n">
-        <v>7299505.922315865</v>
+        <v>7299526.404463467</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2323,10 +2314,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111867696</v>
+        <v>111867030</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>95538</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2335,30 +2326,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>221941</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2366,10 +2358,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>703310.8095286442</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R16" t="n">
-        <v>7299298.053094583</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2439,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111867442</v>
+        <v>111867661</v>
       </c>
       <c r="B17" t="n">
-        <v>90652</v>
+        <v>73692</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2455,21 +2447,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3100</v>
+        <v>310</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2482,10 +2474,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>703126.971377191</v>
+        <v>703308.4646664646</v>
       </c>
       <c r="R17" t="n">
-        <v>7299357.638222828</v>
+        <v>7299302.011735545</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2555,10 +2547,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111867661</v>
+        <v>111867253</v>
       </c>
       <c r="B18" t="n">
-        <v>73692</v>
+        <v>90652</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2571,21 +2563,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>310</v>
+        <v>3100</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2598,10 +2590,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>703308.4646664646</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R18" t="n">
-        <v>7299302.011735545</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2671,10 +2663,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111867094</v>
+        <v>111867104</v>
       </c>
       <c r="B19" t="n">
-        <v>90660</v>
+        <v>90709</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2687,21 +2679,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2714,10 +2706,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>703078.4122161027</v>
+        <v>703082.5451022713</v>
       </c>
       <c r="R19" t="n">
-        <v>7299477.936543548</v>
+        <v>7299472.042296089</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2787,7 +2779,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111867253</v>
+        <v>111867494</v>
       </c>
       <c r="B20" t="n">
         <v>90652</v>
@@ -2830,10 +2822,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>703122.1153461011</v>
+        <v>703166.5193559844</v>
       </c>
       <c r="R20" t="n">
-        <v>7299414.624737519</v>
+        <v>7299306.403931977</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2903,10 +2895,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111867419</v>
+        <v>111867075</v>
       </c>
       <c r="B21" t="n">
-        <v>90658</v>
+        <v>90660</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2919,21 +2911,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2946,10 +2938,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>703159.5881134692</v>
+        <v>703079.296544011</v>
       </c>
       <c r="R21" t="n">
-        <v>7299375.205745419</v>
+        <v>7299482.94824858</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3019,10 +3011,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111867750</v>
+        <v>111868139</v>
       </c>
       <c r="B22" t="n">
-        <v>90682</v>
+        <v>77597</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3035,21 +3027,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2059</v>
+        <v>864</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3062,10 +3054,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>703230.3439029651</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R22" t="n">
-        <v>7299262.248702347</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3135,10 +3127,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111867456</v>
+        <v>111867419</v>
       </c>
       <c r="B23" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3151,21 +3143,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,10 +3170,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>703128.9005519629</v>
+        <v>703159.5881134692</v>
       </c>
       <c r="R23" t="n">
-        <v>7299347.87584792</v>
+        <v>7299375.205745419</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3251,10 +3243,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111866871</v>
+        <v>111867059</v>
       </c>
       <c r="B24" t="n">
-        <v>90652</v>
+        <v>77267</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3267,21 +3259,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3100</v>
+        <v>6446</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3294,10 +3286,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>703075.8558040321</v>
+        <v>703135.1269184008</v>
       </c>
       <c r="R24" t="n">
-        <v>7299584.161187203</v>
+        <v>7299505.043446576</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3367,7 +3359,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111866994</v>
+        <v>111867007</v>
       </c>
       <c r="B25" t="n">
         <v>90709</v>
@@ -3410,10 +3402,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>703114.8550411762</v>
+        <v>703070.0396593859</v>
       </c>
       <c r="R25" t="n">
-        <v>7299511.445840456</v>
+        <v>7299502.915184345</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3483,7 +3475,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111867494</v>
+        <v>111867326</v>
       </c>
       <c r="B26" t="n">
         <v>90652</v>
@@ -3526,10 +3518,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>703166.5193559844</v>
+        <v>703121.4342242506</v>
       </c>
       <c r="R26" t="n">
-        <v>7299306.403931977</v>
+        <v>7299406.740167543</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3599,7 +3591,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111867104</v>
+        <v>111866994</v>
       </c>
       <c r="B27" t="n">
         <v>90709</v>
@@ -3642,10 +3634,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>703082.5451022713</v>
+        <v>703114.8550411762</v>
       </c>
       <c r="R27" t="n">
-        <v>7299472.042296089</v>
+        <v>7299511.445840456</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3715,10 +3707,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111867119</v>
+        <v>111867520</v>
       </c>
       <c r="B28" t="n">
-        <v>88489</v>
+        <v>90854</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3731,21 +3723,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1962</v>
+        <v>2079</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3758,10 +3750,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>703180.3354239021</v>
+        <v>703304.5925224626</v>
       </c>
       <c r="R28" t="n">
-        <v>7299490.506841285</v>
+        <v>7299304.212422617</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3947,10 +3939,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111867520</v>
+        <v>111867186</v>
       </c>
       <c r="B30" t="n">
-        <v>90854</v>
+        <v>90678</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3959,29 +3951,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2079</v>
+        <v>4366</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -3990,10 +3990,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>703304.5925224626</v>
+        <v>703113.0030864173</v>
       </c>
       <c r="R30" t="n">
-        <v>7299304.212422617</v>
+        <v>7299432.540119915</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4063,10 +4063,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111867059</v>
+        <v>111867403</v>
       </c>
       <c r="B31" t="n">
-        <v>77267</v>
+        <v>90660</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4079,21 +4079,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6446</v>
+        <v>4362</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>703135.1269184008</v>
+        <v>703140.5813816102</v>
       </c>
       <c r="R31" t="n">
-        <v>7299505.043446576</v>
+        <v>7299387.059685718</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4179,10 +4179,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111867075</v>
+        <v>111867347</v>
       </c>
       <c r="B32" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4195,21 +4195,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4222,10 +4222,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>703079.296544011</v>
+        <v>703129.4972059733</v>
       </c>
       <c r="R32" t="n">
-        <v>7299482.94824858</v>
+        <v>7299397.824206996</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4295,10 +4295,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111867113</v>
+        <v>111867708</v>
       </c>
       <c r="B33" t="n">
-        <v>90660</v>
+        <v>5113</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4307,30 +4307,36 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4362</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4338,10 +4344,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>703089.4959027101</v>
+        <v>703302.994579477</v>
       </c>
       <c r="R33" t="n">
-        <v>7299467.172166394</v>
+        <v>7299285.950966947</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4411,10 +4417,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111867326</v>
+        <v>111867682</v>
       </c>
       <c r="B34" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4427,21 +4433,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4454,10 +4460,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>703121.4342242506</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R34" t="n">
-        <v>7299406.740167543</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4527,10 +4533,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111867473</v>
+        <v>111867442</v>
       </c>
       <c r="B35" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4543,21 +4549,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4570,10 +4576,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>703142.4611243972</v>
+        <v>703126.971377191</v>
       </c>
       <c r="R35" t="n">
-        <v>7299313.776343916</v>
+        <v>7299357.638222828</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4643,10 +4649,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111866919</v>
+        <v>111867113</v>
       </c>
       <c r="B36" t="n">
-        <v>90689</v>
+        <v>90660</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4659,21 +4665,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5966</v>
+        <v>4362</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4686,10 +4692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>703070.5942336121</v>
+        <v>703089.4959027101</v>
       </c>
       <c r="R36" t="n">
-        <v>7299535.948440861</v>
+        <v>7299467.172166394</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4759,7 +4765,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111866982</v>
+        <v>111867473</v>
       </c>
       <c r="B37" t="n">
         <v>90682</v>
@@ -4802,10 +4808,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>703115.6367589685</v>
+        <v>703142.4611243972</v>
       </c>
       <c r="R37" t="n">
-        <v>7299535.421832842</v>
+        <v>7299313.776343916</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4875,10 +4881,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111867708</v>
+        <v>111867066</v>
       </c>
       <c r="B38" t="n">
-        <v>5113</v>
+        <v>90652</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4887,36 +4893,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100526</v>
+        <v>3100</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4924,10 +4924,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>703302.994579477</v>
+        <v>703117.4226217524</v>
       </c>
       <c r="R38" t="n">
-        <v>7299285.950966947</v>
+        <v>7299492.65569081</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111867403</v>
+        <v>111866919</v>
       </c>
       <c r="B39" t="n">
-        <v>90660</v>
+        <v>90689</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5013,21 +5013,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4362</v>
+        <v>5966</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5040,10 +5040,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>703140.5813816102</v>
+        <v>703070.5942336121</v>
       </c>
       <c r="R39" t="n">
-        <v>7299387.059685718</v>
+        <v>7299535.948440861</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5113,10 +5113,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111867682</v>
+        <v>111867094</v>
       </c>
       <c r="B40" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5129,21 +5129,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>703310.8095286442</v>
+        <v>703078.4122161027</v>
       </c>
       <c r="R40" t="n">
-        <v>7299298.053094583</v>
+        <v>7299477.936543548</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -1269,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111867014</v>
+        <v>111867059</v>
       </c>
       <c r="B7" t="n">
-        <v>90660</v>
+        <v>77267</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,21 +1285,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>6446</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703118.8428476704</v>
+        <v>703135.1269184008</v>
       </c>
       <c r="R7" t="n">
-        <v>7299507.603590234</v>
+        <v>7299505.043446576</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111867696</v>
+        <v>111867347</v>
       </c>
       <c r="B8" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1401,21 +1401,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703310.8095286442</v>
+        <v>703129.4972059733</v>
       </c>
       <c r="R8" t="n">
-        <v>7299298.053094583</v>
+        <v>7299397.824206996</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111867750</v>
+        <v>111867094</v>
       </c>
       <c r="B9" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1517,21 +1517,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1544,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703230.3439029651</v>
+        <v>703078.4122161027</v>
       </c>
       <c r="R9" t="n">
-        <v>7299262.248702347</v>
+        <v>7299477.936543548</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111867119</v>
+        <v>111867708</v>
       </c>
       <c r="B10" t="n">
-        <v>88489</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1629,30 +1629,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1962</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1660,10 +1666,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>703180.3354239021</v>
+        <v>703302.994579477</v>
       </c>
       <c r="R10" t="n">
-        <v>7299490.506841285</v>
+        <v>7299285.950966947</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,10 +1739,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111866982</v>
+        <v>111867030</v>
       </c>
       <c r="B11" t="n">
-        <v>90682</v>
+        <v>95538</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,30 +1751,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2059</v>
+        <v>221941</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1776,10 +1783,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703115.6367589685</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R11" t="n">
-        <v>7299535.421832842</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1849,10 +1856,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111867456</v>
+        <v>111867520</v>
       </c>
       <c r="B12" t="n">
-        <v>90652</v>
+        <v>90854</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1865,21 +1872,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3100</v>
+        <v>2079</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1892,10 +1899,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703128.9005519629</v>
+        <v>703304.5925224626</v>
       </c>
       <c r="R12" t="n">
-        <v>7299347.87584792</v>
+        <v>7299304.212422617</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1965,10 +1972,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111866871</v>
+        <v>111867682</v>
       </c>
       <c r="B13" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1981,21 +1988,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2008,10 +2015,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703075.8558040321</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R13" t="n">
-        <v>7299584.161187203</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2081,10 +2088,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111867271</v>
+        <v>111866871</v>
       </c>
       <c r="B14" t="n">
-        <v>95538</v>
+        <v>90652</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2093,31 +2100,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2125,10 +2131,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703122.1153461011</v>
+        <v>703075.8558040321</v>
       </c>
       <c r="R14" t="n">
-        <v>7299414.624737519</v>
+        <v>7299584.161187203</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2198,10 +2204,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111866960</v>
+        <v>111867119</v>
       </c>
       <c r="B15" t="n">
-        <v>90658</v>
+        <v>88489</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2214,21 +2220,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4361</v>
+        <v>1962</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2241,10 +2247,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>703098.9329420771</v>
+        <v>703180.3354239021</v>
       </c>
       <c r="R15" t="n">
-        <v>7299526.404463467</v>
+        <v>7299490.506841285</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2314,10 +2320,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111867030</v>
+        <v>111867696</v>
       </c>
       <c r="B16" t="n">
-        <v>95538</v>
+        <v>90660</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2326,31 +2332,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221941</v>
+        <v>4362</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2358,10 +2363,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>703118.8428476704</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R16" t="n">
-        <v>7299507.603590234</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2431,10 +2436,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111867661</v>
+        <v>111867750</v>
       </c>
       <c r="B17" t="n">
-        <v>73692</v>
+        <v>90682</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2447,21 +2452,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>310</v>
+        <v>2059</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2474,10 +2479,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>703308.4646664646</v>
+        <v>703230.3439029651</v>
       </c>
       <c r="R17" t="n">
-        <v>7299302.011735545</v>
+        <v>7299262.248702347</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2547,7 +2552,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111867253</v>
+        <v>111867442</v>
       </c>
       <c r="B18" t="n">
         <v>90652</v>
@@ -2590,10 +2595,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>703122.1153461011</v>
+        <v>703126.971377191</v>
       </c>
       <c r="R18" t="n">
-        <v>7299414.624737519</v>
+        <v>7299357.638222828</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2663,10 +2668,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111867104</v>
+        <v>111866919</v>
       </c>
       <c r="B19" t="n">
-        <v>90709</v>
+        <v>90689</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2679,21 +2684,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5448</v>
+        <v>5966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2706,10 +2711,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>703082.5451022713</v>
+        <v>703070.5942336121</v>
       </c>
       <c r="R19" t="n">
-        <v>7299472.042296089</v>
+        <v>7299535.948440861</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2779,10 +2784,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111867494</v>
+        <v>111867104</v>
       </c>
       <c r="B20" t="n">
-        <v>90652</v>
+        <v>90709</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2795,21 +2800,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3100</v>
+        <v>5448</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2822,10 +2827,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>703166.5193559844</v>
+        <v>703082.5451022713</v>
       </c>
       <c r="R20" t="n">
-        <v>7299306.403931977</v>
+        <v>7299472.042296089</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2895,10 +2900,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111867075</v>
+        <v>111867253</v>
       </c>
       <c r="B21" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2911,21 +2916,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2938,10 +2943,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>703079.296544011</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R21" t="n">
-        <v>7299482.94824858</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3011,10 +3016,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111868139</v>
+        <v>111867419</v>
       </c>
       <c r="B22" t="n">
-        <v>77597</v>
+        <v>90658</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3027,21 +3032,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>864</v>
+        <v>4361</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3054,10 +3059,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>703310.8095286442</v>
+        <v>703159.5881134692</v>
       </c>
       <c r="R22" t="n">
-        <v>7299298.053094583</v>
+        <v>7299375.205745419</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3127,10 +3132,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111867419</v>
+        <v>111866994</v>
       </c>
       <c r="B23" t="n">
-        <v>90658</v>
+        <v>90709</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3143,21 +3148,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4361</v>
+        <v>5448</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3170,10 +3175,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>703159.5881134692</v>
+        <v>703114.8550411762</v>
       </c>
       <c r="R23" t="n">
-        <v>7299375.205745419</v>
+        <v>7299511.445840456</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3243,10 +3248,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111867059</v>
+        <v>111867473</v>
       </c>
       <c r="B24" t="n">
-        <v>77267</v>
+        <v>90682</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3259,21 +3264,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6446</v>
+        <v>2059</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3286,10 +3291,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>703135.1269184008</v>
+        <v>703142.4611243972</v>
       </c>
       <c r="R24" t="n">
-        <v>7299505.043446576</v>
+        <v>7299313.776343916</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3359,10 +3364,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111867007</v>
+        <v>111868139</v>
       </c>
       <c r="B25" t="n">
-        <v>90709</v>
+        <v>77597</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3375,21 +3380,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5448</v>
+        <v>864</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3402,10 +3407,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>703070.0396593859</v>
+        <v>703310.8095286442</v>
       </c>
       <c r="R25" t="n">
-        <v>7299502.915184345</v>
+        <v>7299298.053094583</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3475,7 +3480,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111867326</v>
+        <v>111867066</v>
       </c>
       <c r="B26" t="n">
         <v>90652</v>
@@ -3518,10 +3523,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>703121.4342242506</v>
+        <v>703117.4226217524</v>
       </c>
       <c r="R26" t="n">
-        <v>7299406.740167543</v>
+        <v>7299492.65569081</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3591,10 +3596,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111866994</v>
+        <v>111867113</v>
       </c>
       <c r="B27" t="n">
-        <v>90709</v>
+        <v>90660</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3607,21 +3612,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3634,10 +3639,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>703114.8550411762</v>
+        <v>703089.4959027101</v>
       </c>
       <c r="R27" t="n">
-        <v>7299511.445840456</v>
+        <v>7299467.172166394</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3707,10 +3712,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111867520</v>
+        <v>111867494</v>
       </c>
       <c r="B28" t="n">
-        <v>90854</v>
+        <v>90652</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3723,21 +3728,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2079</v>
+        <v>3100</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3750,10 +3755,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>703304.5925224626</v>
+        <v>703166.5193559844</v>
       </c>
       <c r="R28" t="n">
-        <v>7299304.212422617</v>
+        <v>7299306.403931977</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3823,10 +3828,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111867735</v>
+        <v>111867075</v>
       </c>
       <c r="B29" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3839,21 +3844,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3866,10 +3871,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>703215.6669113962</v>
+        <v>703079.296544011</v>
       </c>
       <c r="R29" t="n">
-        <v>7299218.726026188</v>
+        <v>7299482.94824858</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3939,10 +3944,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111867186</v>
+        <v>111867403</v>
       </c>
       <c r="B30" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3951,37 +3956,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -3990,10 +3987,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>703113.0030864173</v>
+        <v>703140.5813816102</v>
       </c>
       <c r="R30" t="n">
-        <v>7299432.540119915</v>
+        <v>7299387.059685718</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4063,10 +4060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111867403</v>
+        <v>111867271</v>
       </c>
       <c r="B31" t="n">
-        <v>90660</v>
+        <v>95538</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4075,30 +4072,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4362</v>
+        <v>221941</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4106,10 +4104,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>703140.5813816102</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R31" t="n">
-        <v>7299387.059685718</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4179,10 +4177,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111867347</v>
+        <v>111867014</v>
       </c>
       <c r="B32" t="n">
-        <v>90682</v>
+        <v>90660</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4195,21 +4193,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4222,10 +4220,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>703129.4972059733</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R32" t="n">
-        <v>7299397.824206996</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4295,10 +4293,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111867708</v>
+        <v>111867007</v>
       </c>
       <c r="B33" t="n">
-        <v>5113</v>
+        <v>90709</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4307,36 +4305,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100526</v>
+        <v>5448</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4344,10 +4336,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>703302.994579477</v>
+        <v>703070.0396593859</v>
       </c>
       <c r="R33" t="n">
-        <v>7299285.950966947</v>
+        <v>7299502.915184345</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4417,10 +4409,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111867682</v>
+        <v>111867186</v>
       </c>
       <c r="B34" t="n">
-        <v>90682</v>
+        <v>90678</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4429,29 +4421,37 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4460,10 +4460,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>703310.8095286442</v>
+        <v>703113.0030864173</v>
       </c>
       <c r="R34" t="n">
-        <v>7299298.053094583</v>
+        <v>7299432.540119915</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111867442</v>
+        <v>111867326</v>
       </c>
       <c r="B35" t="n">
         <v>90652</v>
@@ -4576,10 +4576,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>703126.971377191</v>
+        <v>703121.4342242506</v>
       </c>
       <c r="R35" t="n">
-        <v>7299357.638222828</v>
+        <v>7299406.740167543</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4649,10 +4649,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111867113</v>
+        <v>111866960</v>
       </c>
       <c r="B36" t="n">
-        <v>90660</v>
+        <v>90658</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4665,21 +4665,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4692,10 +4692,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>703089.4959027101</v>
+        <v>703098.9329420771</v>
       </c>
       <c r="R36" t="n">
-        <v>7299467.172166394</v>
+        <v>7299526.404463467</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4765,10 +4765,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111867473</v>
+        <v>111867456</v>
       </c>
       <c r="B37" t="n">
-        <v>90682</v>
+        <v>90652</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4781,21 +4781,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4808,10 +4808,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>703142.4611243972</v>
+        <v>703128.9005519629</v>
       </c>
       <c r="R37" t="n">
-        <v>7299313.776343916</v>
+        <v>7299347.87584792</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111867066</v>
+        <v>111867735</v>
       </c>
       <c r="B38" t="n">
         <v>90652</v>
@@ -4924,10 +4924,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>703117.4226217524</v>
+        <v>703215.6669113962</v>
       </c>
       <c r="R38" t="n">
-        <v>7299492.65569081</v>
+        <v>7299218.726026188</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111866919</v>
+        <v>111867661</v>
       </c>
       <c r="B39" t="n">
-        <v>90689</v>
+        <v>73692</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5013,21 +5013,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5966</v>
+        <v>310</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5040,10 +5040,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>703070.5942336121</v>
+        <v>703308.4646664646</v>
       </c>
       <c r="R39" t="n">
-        <v>7299535.948440861</v>
+        <v>7299302.011735545</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5113,10 +5113,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111867094</v>
+        <v>111866982</v>
       </c>
       <c r="B40" t="n">
-        <v>90660</v>
+        <v>90682</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5129,21 +5129,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>703078.4122161027</v>
+        <v>703115.6367589685</v>
       </c>
       <c r="R40" t="n">
-        <v>7299477.936543548</v>
+        <v>7299535.421832842</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -4060,10 +4060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111867271</v>
+        <v>111867014</v>
       </c>
       <c r="B31" t="n">
-        <v>95538</v>
+        <v>90660</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4072,31 +4072,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>221941</v>
+        <v>4362</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4104,10 +4103,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>703122.1153461011</v>
+        <v>703118.8428476704</v>
       </c>
       <c r="R31" t="n">
-        <v>7299414.624737519</v>
+        <v>7299507.603590234</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4177,10 +4176,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111867014</v>
+        <v>111867271</v>
       </c>
       <c r="B32" t="n">
-        <v>90660</v>
+        <v>95538</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4189,30 +4188,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>221941</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>703118.8428476704</v>
+        <v>703122.1153461011</v>
       </c>
       <c r="R32" t="n">
-        <v>7299507.603590234</v>
+        <v>7299414.624737519</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -1153,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111867055</v>
+        <v>111868139</v>
       </c>
       <c r="B6" t="n">
-        <v>78107</v>
+        <v>77597</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,21 +1169,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>864</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703135.8905520557</v>
+        <v>703311</v>
       </c>
       <c r="R6" t="n">
-        <v>7299505.922315865</v>
+        <v>7299298</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111867059</v>
+        <v>111867403</v>
       </c>
       <c r="B7" t="n">
-        <v>77267</v>
+        <v>90660</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,21 +1285,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6446</v>
+        <v>4362</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703135.1269184008</v>
+        <v>703141</v>
       </c>
       <c r="R7" t="n">
-        <v>7299505.043446576</v>
+        <v>7299387</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111867347</v>
+        <v>111867055</v>
       </c>
       <c r="B8" t="n">
-        <v>90682</v>
+        <v>78107</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1401,21 +1401,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703129.4972059733</v>
+        <v>703136</v>
       </c>
       <c r="R8" t="n">
-        <v>7299397.824206996</v>
+        <v>7299506</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111867094</v>
+        <v>111867456</v>
       </c>
       <c r="B9" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1517,21 +1517,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1544,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703078.4122161027</v>
+        <v>703129</v>
       </c>
       <c r="R9" t="n">
-        <v>7299477.936543548</v>
+        <v>7299348</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111867708</v>
+        <v>111867520</v>
       </c>
       <c r="B10" t="n">
-        <v>5113</v>
+        <v>90854</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1629,36 +1629,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100526</v>
+        <v>2079</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1666,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>703302.994579477</v>
+        <v>703305</v>
       </c>
       <c r="R10" t="n">
-        <v>7299285.950966947</v>
+        <v>7299304</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1739,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111867030</v>
+        <v>111866919</v>
       </c>
       <c r="B11" t="n">
-        <v>95538</v>
+        <v>90689</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1751,31 +1745,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221941</v>
+        <v>5966</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1783,10 +1776,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703118.8428476704</v>
+        <v>703071</v>
       </c>
       <c r="R11" t="n">
-        <v>7299507.603590234</v>
+        <v>7299536</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1856,10 +1849,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111867520</v>
+        <v>111867696</v>
       </c>
       <c r="B12" t="n">
-        <v>90854</v>
+        <v>90660</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1872,21 +1865,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2079</v>
+        <v>4362</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1899,10 +1892,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703304.5925224626</v>
+        <v>703311</v>
       </c>
       <c r="R12" t="n">
-        <v>7299304.212422617</v>
+        <v>7299298</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1972,7 +1965,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111867682</v>
+        <v>111867473</v>
       </c>
       <c r="B13" t="n">
         <v>90682</v>
@@ -2015,10 +2008,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>703310.8095286442</v>
+        <v>703142</v>
       </c>
       <c r="R13" t="n">
-        <v>7299298.053094583</v>
+        <v>7299314</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2088,7 +2081,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111866871</v>
+        <v>111867442</v>
       </c>
       <c r="B14" t="n">
         <v>90652</v>
@@ -2131,10 +2124,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703075.8558040321</v>
+        <v>703127</v>
       </c>
       <c r="R14" t="n">
-        <v>7299584.161187203</v>
+        <v>7299358</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2204,10 +2197,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111867119</v>
+        <v>111867750</v>
       </c>
       <c r="B15" t="n">
-        <v>88489</v>
+        <v>90682</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2220,21 +2213,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1962</v>
+        <v>2059</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2247,10 +2240,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>703180.3354239021</v>
+        <v>703230</v>
       </c>
       <c r="R15" t="n">
-        <v>7299490.506841285</v>
+        <v>7299262</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2320,10 +2313,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111867696</v>
+        <v>111866871</v>
       </c>
       <c r="B16" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2336,21 +2329,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2363,10 +2356,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>703310.8095286442</v>
+        <v>703076</v>
       </c>
       <c r="R16" t="n">
-        <v>7299298.053094583</v>
+        <v>7299584</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2436,7 +2429,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111867750</v>
+        <v>111867682</v>
       </c>
       <c r="B17" t="n">
         <v>90682</v>
@@ -2479,10 +2472,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>703230.3439029651</v>
+        <v>703311</v>
       </c>
       <c r="R17" t="n">
-        <v>7299262.248702347</v>
+        <v>7299298</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2552,10 +2545,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111867442</v>
+        <v>111867075</v>
       </c>
       <c r="B18" t="n">
-        <v>90652</v>
+        <v>90660</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2568,21 +2561,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2595,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>703126.971377191</v>
+        <v>703079</v>
       </c>
       <c r="R18" t="n">
-        <v>7299357.638222828</v>
+        <v>7299483</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2668,10 +2661,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111866919</v>
+        <v>111867494</v>
       </c>
       <c r="B19" t="n">
-        <v>90689</v>
+        <v>90652</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2684,21 +2677,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5966</v>
+        <v>3100</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2711,10 +2704,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>703070.5942336121</v>
+        <v>703167</v>
       </c>
       <c r="R19" t="n">
-        <v>7299535.948440861</v>
+        <v>7299306</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2784,10 +2777,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111867104</v>
+        <v>111867347</v>
       </c>
       <c r="B20" t="n">
-        <v>90709</v>
+        <v>90682</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2800,21 +2793,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5448</v>
+        <v>2059</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2827,10 +2820,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>703082.5451022713</v>
+        <v>703129</v>
       </c>
       <c r="R20" t="n">
-        <v>7299472.042296089</v>
+        <v>7299398</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2900,10 +2893,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111867253</v>
+        <v>111866982</v>
       </c>
       <c r="B21" t="n">
-        <v>90652</v>
+        <v>90682</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2916,21 +2909,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2943,10 +2936,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>703122.1153461011</v>
+        <v>703116</v>
       </c>
       <c r="R21" t="n">
-        <v>7299414.624737519</v>
+        <v>7299535</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3016,7 +3009,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111867419</v>
+        <v>111866960</v>
       </c>
       <c r="B22" t="n">
         <v>90658</v>
@@ -3059,10 +3052,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>703159.5881134692</v>
+        <v>703099</v>
       </c>
       <c r="R22" t="n">
-        <v>7299375.205745419</v>
+        <v>7299526</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3132,10 +3125,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111866994</v>
+        <v>111867661</v>
       </c>
       <c r="B23" t="n">
-        <v>90709</v>
+        <v>73692</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3148,21 +3141,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5448</v>
+        <v>310</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3175,10 +3168,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>703114.8550411762</v>
+        <v>703308</v>
       </c>
       <c r="R23" t="n">
-        <v>7299511.445840456</v>
+        <v>7299302</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3248,10 +3241,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111867473</v>
+        <v>111866994</v>
       </c>
       <c r="B24" t="n">
-        <v>90682</v>
+        <v>90709</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3264,21 +3257,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2059</v>
+        <v>5448</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3291,10 +3284,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>703142.4611243972</v>
+        <v>703115</v>
       </c>
       <c r="R24" t="n">
-        <v>7299313.776343916</v>
+        <v>7299511</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3364,10 +3357,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111868139</v>
+        <v>111867735</v>
       </c>
       <c r="B25" t="n">
-        <v>77597</v>
+        <v>90652</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3380,21 +3373,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>864</v>
+        <v>3100</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3407,10 +3400,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>703310.8095286442</v>
+        <v>703216</v>
       </c>
       <c r="R25" t="n">
-        <v>7299298.053094583</v>
+        <v>7299219</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3480,10 +3473,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111867066</v>
+        <v>111867104</v>
       </c>
       <c r="B26" t="n">
-        <v>90652</v>
+        <v>90709</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3496,21 +3489,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3100</v>
+        <v>5448</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3523,10 +3516,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>703117.4226217524</v>
+        <v>703083</v>
       </c>
       <c r="R26" t="n">
-        <v>7299492.65569081</v>
+        <v>7299472</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3596,7 +3589,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111867113</v>
+        <v>111867094</v>
       </c>
       <c r="B27" t="n">
         <v>90660</v>
@@ -3639,10 +3632,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>703089.4959027101</v>
+        <v>703078</v>
       </c>
       <c r="R27" t="n">
-        <v>7299467.172166394</v>
+        <v>7299478</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3712,10 +3705,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111867494</v>
+        <v>111867007</v>
       </c>
       <c r="B28" t="n">
-        <v>90652</v>
+        <v>90709</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3728,21 +3721,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3100</v>
+        <v>5448</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3755,10 +3748,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>703166.5193559844</v>
+        <v>703070</v>
       </c>
       <c r="R28" t="n">
-        <v>7299306.403931977</v>
+        <v>7299503</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3828,10 +3821,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111867075</v>
+        <v>111867030</v>
       </c>
       <c r="B29" t="n">
-        <v>90660</v>
+        <v>95538</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3840,30 +3833,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4362</v>
+        <v>221941</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3871,10 +3865,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>703079.296544011</v>
+        <v>703119</v>
       </c>
       <c r="R29" t="n">
-        <v>7299482.94824858</v>
+        <v>7299508</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3944,10 +3938,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111867403</v>
+        <v>111867186</v>
       </c>
       <c r="B30" t="n">
-        <v>90660</v>
+        <v>90678</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3956,29 +3950,37 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4362</v>
+        <v>4366</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -3987,10 +3989,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>703140.5813816102</v>
+        <v>703113</v>
       </c>
       <c r="R30" t="n">
-        <v>7299387.059685718</v>
+        <v>7299433</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4060,10 +4062,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111867014</v>
+        <v>111867326</v>
       </c>
       <c r="B31" t="n">
-        <v>90660</v>
+        <v>90652</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4076,21 +4078,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4103,10 +4105,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>703118.8428476704</v>
+        <v>703121</v>
       </c>
       <c r="R31" t="n">
-        <v>7299507.603590234</v>
+        <v>7299407</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4176,10 +4178,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111867271</v>
+        <v>111867014</v>
       </c>
       <c r="B32" t="n">
-        <v>95538</v>
+        <v>90660</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4188,31 +4190,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221941</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
@@ -4220,10 +4221,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>703122.1153461011</v>
+        <v>703119</v>
       </c>
       <c r="R32" t="n">
-        <v>7299414.624737519</v>
+        <v>7299508</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4293,10 +4294,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111867007</v>
+        <v>111867119</v>
       </c>
       <c r="B33" t="n">
-        <v>90709</v>
+        <v>88489</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4309,21 +4310,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5448</v>
+        <v>1962</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4336,10 +4337,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>703070.0396593859</v>
+        <v>703180</v>
       </c>
       <c r="R33" t="n">
-        <v>7299502.915184345</v>
+        <v>7299491</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4409,10 +4410,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111867186</v>
+        <v>111867113</v>
       </c>
       <c r="B34" t="n">
-        <v>90678</v>
+        <v>90660</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4421,37 +4422,29 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4366</v>
+        <v>4362</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
@@ -4460,10 +4453,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>703113.0030864173</v>
+        <v>703089</v>
       </c>
       <c r="R34" t="n">
-        <v>7299432.540119915</v>
+        <v>7299467</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4533,7 +4526,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111867326</v>
+        <v>111867253</v>
       </c>
       <c r="B35" t="n">
         <v>90652</v>
@@ -4576,10 +4569,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>703121.4342242506</v>
+        <v>703122</v>
       </c>
       <c r="R35" t="n">
-        <v>7299406.740167543</v>
+        <v>7299415</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4649,10 +4642,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111866960</v>
+        <v>111867066</v>
       </c>
       <c r="B36" t="n">
-        <v>90658</v>
+        <v>90652</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4665,21 +4658,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4361</v>
+        <v>3100</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4692,10 +4685,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>703098.9329420771</v>
+        <v>703117</v>
       </c>
       <c r="R36" t="n">
-        <v>7299526.404463467</v>
+        <v>7299493</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4765,10 +4758,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111867456</v>
+        <v>111867419</v>
       </c>
       <c r="B37" t="n">
-        <v>90652</v>
+        <v>90658</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4781,21 +4774,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4808,10 +4801,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>703128.9005519629</v>
+        <v>703160</v>
       </c>
       <c r="R37" t="n">
-        <v>7299347.87584792</v>
+        <v>7299375</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4881,10 +4874,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111867735</v>
+        <v>111867059</v>
       </c>
       <c r="B38" t="n">
-        <v>90652</v>
+        <v>77267</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4897,21 +4890,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3100</v>
+        <v>6446</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4924,10 +4917,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>703215.6669113962</v>
+        <v>703135</v>
       </c>
       <c r="R38" t="n">
-        <v>7299218.726026188</v>
+        <v>7299505</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4997,10 +4990,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111867661</v>
+        <v>111867708</v>
       </c>
       <c r="B39" t="n">
-        <v>73692</v>
+        <v>5113</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5009,30 +5002,36 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>310</v>
+        <v>100526</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5040,10 +5039,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>703308.4646664646</v>
+        <v>703303</v>
       </c>
       <c r="R39" t="n">
-        <v>7299302.011735545</v>
+        <v>7299286</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5113,10 +5112,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111866982</v>
+        <v>111867271</v>
       </c>
       <c r="B40" t="n">
-        <v>90682</v>
+        <v>95538</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5125,30 +5124,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2059</v>
+        <v>221941</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>703115.6367589685</v>
+        <v>703122</v>
       </c>
       <c r="R40" t="n">
-        <v>7299535.421832842</v>
+        <v>7299415</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -1153,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111868139</v>
+        <v>111867119</v>
       </c>
       <c r="B6" t="n">
-        <v>77597</v>
+        <v>88623</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,21 +1169,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>864</v>
+        <v>1962</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703311</v>
+        <v>703180</v>
       </c>
       <c r="R6" t="n">
-        <v>7299298</v>
+        <v>7299491</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111867403</v>
+        <v>111867113</v>
       </c>
       <c r="B7" t="n">
-        <v>90660</v>
+        <v>90794</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703141</v>
+        <v>703089</v>
       </c>
       <c r="R7" t="n">
-        <v>7299387</v>
+        <v>7299467</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111867055</v>
+        <v>111866919</v>
       </c>
       <c r="B8" t="n">
-        <v>78107</v>
+        <v>90823</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1401,21 +1401,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6453</v>
+        <v>5966</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703136</v>
+        <v>703071</v>
       </c>
       <c r="R8" t="n">
-        <v>7299506</v>
+        <v>7299536</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1501,10 +1501,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111867456</v>
+        <v>111867326</v>
       </c>
       <c r="B9" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1544,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>703129</v>
+        <v>703121</v>
       </c>
       <c r="R9" t="n">
-        <v>7299348</v>
+        <v>7299407</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1617,10 +1617,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111867520</v>
+        <v>111867708</v>
       </c>
       <c r="B10" t="n">
-        <v>90854</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1629,30 +1629,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2079</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1660,10 +1666,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>703305</v>
+        <v>703303</v>
       </c>
       <c r="R10" t="n">
-        <v>7299304</v>
+        <v>7299286</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,10 +1739,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111866919</v>
+        <v>111867094</v>
       </c>
       <c r="B11" t="n">
-        <v>90689</v>
+        <v>90794</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,21 +1755,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5966</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1776,10 +1782,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>703071</v>
+        <v>703078</v>
       </c>
       <c r="R11" t="n">
-        <v>7299536</v>
+        <v>7299478</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1849,10 +1855,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111867696</v>
+        <v>111867030</v>
       </c>
       <c r="B12" t="n">
-        <v>90660</v>
+        <v>95693</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1861,30 +1867,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4362</v>
+        <v>221941</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1892,10 +1899,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>703311</v>
+        <v>703119</v>
       </c>
       <c r="R12" t="n">
-        <v>7299298</v>
+        <v>7299508</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1968,7 +1975,7 @@
         <v>111867473</v>
       </c>
       <c r="B13" t="n">
-        <v>90682</v>
+        <v>90816</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2081,10 +2088,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111867442</v>
+        <v>111867696</v>
       </c>
       <c r="B14" t="n">
-        <v>90652</v>
+        <v>90794</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2097,21 +2104,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3100</v>
+        <v>4362</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2124,10 +2131,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>703127</v>
+        <v>703311</v>
       </c>
       <c r="R14" t="n">
-        <v>7299358</v>
+        <v>7299298</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2197,10 +2204,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111867750</v>
+        <v>111867442</v>
       </c>
       <c r="B15" t="n">
-        <v>90682</v>
+        <v>90786</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2213,21 +2220,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2059</v>
+        <v>3100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2240,10 +2247,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>703230</v>
+        <v>703127</v>
       </c>
       <c r="R15" t="n">
-        <v>7299262</v>
+        <v>7299358</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2313,10 +2320,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111866871</v>
+        <v>111866982</v>
       </c>
       <c r="B16" t="n">
-        <v>90652</v>
+        <v>90816</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2329,21 +2336,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2356,10 +2363,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>703076</v>
+        <v>703116</v>
       </c>
       <c r="R16" t="n">
-        <v>7299584</v>
+        <v>7299535</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2429,10 +2436,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111867682</v>
+        <v>111867403</v>
       </c>
       <c r="B17" t="n">
-        <v>90682</v>
+        <v>90794</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2445,21 +2452,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2059</v>
+        <v>4362</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2472,10 +2479,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>703311</v>
+        <v>703141</v>
       </c>
       <c r="R17" t="n">
-        <v>7299298</v>
+        <v>7299387</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2545,10 +2552,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111867075</v>
+        <v>111867494</v>
       </c>
       <c r="B18" t="n">
-        <v>90660</v>
+        <v>90786</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2561,21 +2568,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2588,10 +2595,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>703079</v>
+        <v>703167</v>
       </c>
       <c r="R18" t="n">
-        <v>7299483</v>
+        <v>7299306</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2661,10 +2668,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111867494</v>
+        <v>111866960</v>
       </c>
       <c r="B19" t="n">
-        <v>90652</v>
+        <v>90792</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,21 +2684,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3100</v>
+        <v>4361</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2704,10 +2711,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>703167</v>
+        <v>703099</v>
       </c>
       <c r="R19" t="n">
-        <v>7299306</v>
+        <v>7299526</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2777,10 +2784,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111867347</v>
+        <v>111867186</v>
       </c>
       <c r="B20" t="n">
-        <v>90682</v>
+        <v>90812</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2789,29 +2796,37 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2059</v>
+        <v>4366</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
@@ -2820,10 +2835,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>703129</v>
+        <v>703113</v>
       </c>
       <c r="R20" t="n">
-        <v>7299398</v>
+        <v>7299433</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2893,10 +2908,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111866982</v>
+        <v>111867520</v>
       </c>
       <c r="B21" t="n">
-        <v>90682</v>
+        <v>90988</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2909,21 +2924,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2059</v>
+        <v>2079</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2936,10 +2951,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>703116</v>
+        <v>703305</v>
       </c>
       <c r="R21" t="n">
-        <v>7299535</v>
+        <v>7299304</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3009,10 +3024,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111866960</v>
+        <v>111867750</v>
       </c>
       <c r="B22" t="n">
-        <v>90658</v>
+        <v>90816</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3025,21 +3040,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4361</v>
+        <v>2059</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3052,10 +3067,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>703099</v>
+        <v>703230</v>
       </c>
       <c r="R22" t="n">
-        <v>7299526</v>
+        <v>7299262</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3125,10 +3140,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111867661</v>
+        <v>111867104</v>
       </c>
       <c r="B23" t="n">
-        <v>73692</v>
+        <v>90843</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3141,21 +3156,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>310</v>
+        <v>5448</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nordlig nållav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca laevigata</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3168,10 +3183,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>703308</v>
+        <v>703083</v>
       </c>
       <c r="R23" t="n">
-        <v>7299302</v>
+        <v>7299472</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3241,10 +3256,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111866994</v>
+        <v>111867014</v>
       </c>
       <c r="B24" t="n">
-        <v>90709</v>
+        <v>90794</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3257,21 +3272,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3284,10 +3299,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>703115</v>
+        <v>703119</v>
       </c>
       <c r="R24" t="n">
-        <v>7299511</v>
+        <v>7299508</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3357,10 +3372,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111867735</v>
+        <v>111867066</v>
       </c>
       <c r="B25" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3400,10 +3415,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>703216</v>
+        <v>703117</v>
       </c>
       <c r="R25" t="n">
-        <v>7299219</v>
+        <v>7299493</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3473,10 +3488,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111867104</v>
+        <v>111867075</v>
       </c>
       <c r="B26" t="n">
-        <v>90709</v>
+        <v>90794</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3489,21 +3504,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5448</v>
+        <v>4362</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3516,10 +3531,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>703083</v>
+        <v>703079</v>
       </c>
       <c r="R26" t="n">
-        <v>7299472</v>
+        <v>7299483</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3589,10 +3604,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111867094</v>
+        <v>111866871</v>
       </c>
       <c r="B27" t="n">
-        <v>90660</v>
+        <v>90786</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3605,21 +3620,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4362</v>
+        <v>3100</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3632,10 +3647,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>703078</v>
+        <v>703076</v>
       </c>
       <c r="R27" t="n">
-        <v>7299478</v>
+        <v>7299584</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3705,10 +3720,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111867007</v>
+        <v>111868139</v>
       </c>
       <c r="B28" t="n">
-        <v>90709</v>
+        <v>77717</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3721,21 +3736,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5448</v>
+        <v>864</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3748,10 +3763,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>703070</v>
+        <v>703311</v>
       </c>
       <c r="R28" t="n">
-        <v>7299503</v>
+        <v>7299298</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3821,10 +3836,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111867030</v>
+        <v>111867682</v>
       </c>
       <c r="B29" t="n">
-        <v>95538</v>
+        <v>90816</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3833,31 +3848,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>221941</v>
+        <v>2059</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3865,10 +3879,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>703119</v>
+        <v>703311</v>
       </c>
       <c r="R29" t="n">
-        <v>7299508</v>
+        <v>7299298</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3938,10 +3952,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111867186</v>
+        <v>111867419</v>
       </c>
       <c r="B30" t="n">
-        <v>90678</v>
+        <v>90792</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3950,37 +3964,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Banker</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
@@ -3989,10 +3995,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>703113</v>
+        <v>703160</v>
       </c>
       <c r="R30" t="n">
-        <v>7299433</v>
+        <v>7299375</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4062,10 +4068,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111867326</v>
+        <v>111867735</v>
       </c>
       <c r="B31" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4105,10 +4111,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>703121</v>
+        <v>703216</v>
       </c>
       <c r="R31" t="n">
-        <v>7299407</v>
+        <v>7299219</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4178,10 +4184,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111867014</v>
+        <v>111867661</v>
       </c>
       <c r="B32" t="n">
-        <v>90660</v>
+        <v>73816</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4194,21 +4200,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4362</v>
+        <v>310</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Nordlig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Chaenotheca laevigata</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4221,10 +4227,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>703119</v>
+        <v>703308</v>
       </c>
       <c r="R32" t="n">
-        <v>7299508</v>
+        <v>7299302</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4294,10 +4300,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111867119</v>
+        <v>111867055</v>
       </c>
       <c r="B33" t="n">
-        <v>88489</v>
+        <v>78228</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4310,21 +4316,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1962</v>
+        <v>6453</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4337,10 +4343,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>703180</v>
+        <v>703136</v>
       </c>
       <c r="R33" t="n">
-        <v>7299491</v>
+        <v>7299506</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4410,10 +4416,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111867113</v>
+        <v>111867007</v>
       </c>
       <c r="B34" t="n">
-        <v>90660</v>
+        <v>90843</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4426,21 +4432,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4362</v>
+        <v>5448</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4453,10 +4459,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>703089</v>
+        <v>703070</v>
       </c>
       <c r="R34" t="n">
-        <v>7299467</v>
+        <v>7299503</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4529,7 +4535,7 @@
         <v>111867253</v>
       </c>
       <c r="B35" t="n">
-        <v>90652</v>
+        <v>90786</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4642,10 +4648,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111867066</v>
+        <v>111867347</v>
       </c>
       <c r="B36" t="n">
-        <v>90652</v>
+        <v>90816</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4658,21 +4664,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3100</v>
+        <v>2059</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4685,10 +4691,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>703117</v>
+        <v>703129</v>
       </c>
       <c r="R36" t="n">
-        <v>7299493</v>
+        <v>7299398</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4758,10 +4764,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111867419</v>
+        <v>111867271</v>
       </c>
       <c r="B37" t="n">
-        <v>90658</v>
+        <v>95693</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4770,30 +4776,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4361</v>
+        <v>221941</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4801,10 +4808,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>703160</v>
+        <v>703122</v>
       </c>
       <c r="R37" t="n">
-        <v>7299375</v>
+        <v>7299415</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4874,10 +4881,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111867059</v>
+        <v>111866994</v>
       </c>
       <c r="B38" t="n">
-        <v>77267</v>
+        <v>90843</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4890,21 +4897,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6446</v>
+        <v>5448</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4917,10 +4924,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>703135</v>
+        <v>703115</v>
       </c>
       <c r="R38" t="n">
-        <v>7299505</v>
+        <v>7299511</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4990,10 +4997,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111867708</v>
+        <v>111867059</v>
       </c>
       <c r="B39" t="n">
-        <v>5113</v>
+        <v>77388</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5002,36 +5009,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100526</v>
+        <v>6446</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
@@ -5039,10 +5040,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>703303</v>
+        <v>703135</v>
       </c>
       <c r="R39" t="n">
-        <v>7299286</v>
+        <v>7299505</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5112,10 +5113,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111867271</v>
+        <v>111867456</v>
       </c>
       <c r="B40" t="n">
-        <v>95538</v>
+        <v>90786</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5124,31 +5125,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>703122</v>
+        <v>703129</v>
       </c>
       <c r="R40" t="n">
-        <v>7299415</v>
+        <v>7299348</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 42552-2022.xlsx
+++ b/artfynd/A 42552-2022.xlsx
@@ -1153,10 +1153,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111867119</v>
+        <v>111866919</v>
       </c>
       <c r="B6" t="n">
-        <v>88623</v>
+        <v>90823</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,21 +1169,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1962</v>
+        <v>5966</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>703180</v>
+        <v>703071</v>
       </c>
       <c r="R6" t="n">
-        <v>7299491</v>
+        <v>7299536</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1269,10 +1269,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111867113</v>
+        <v>111867119</v>
       </c>
       <c r="B7" t="n">
-        <v>90794</v>
+        <v>88623</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,21 +1285,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1312,10 +1312,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>703089</v>
+        <v>703180</v>
       </c>
       <c r="R7" t="n">
-        <v>7299467</v>
+        <v>7299491</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,10 +1385,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111866919</v>
+        <v>111867113</v>
       </c>
       <c r="B8" t="n">
-        <v>90823</v>
+        <v>90794</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1401,21 +1401,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5966</v>
+        <v>4362</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>703071</v>
+        <v>703089</v>
       </c>
       <c r="R8" t="n">
-        <v>7299536</v>
+        <v>7299467</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -4764,10 +4764,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111867271</v>
+        <v>111866994</v>
       </c>
       <c r="B37" t="n">
-        <v>95693</v>
+        <v>90843</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4776,31 +4776,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>221941</v>
+        <v>5448</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4808,10 +4807,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>703122</v>
+        <v>703115</v>
       </c>
       <c r="R37" t="n">
-        <v>7299415</v>
+        <v>7299511</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4881,10 +4880,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111866994</v>
+        <v>111867271</v>
       </c>
       <c r="B38" t="n">
-        <v>90843</v>
+        <v>95693</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4893,30 +4892,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5448</v>
+        <v>221941</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4924,10 +4924,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>703115</v>
+        <v>703122</v>
       </c>
       <c r="R38" t="n">
-        <v>7299511</v>
+        <v>7299415</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4997,10 +4997,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111867059</v>
+        <v>111867456</v>
       </c>
       <c r="B39" t="n">
-        <v>77388</v>
+        <v>90786</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5013,21 +5013,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6446</v>
+        <v>3100</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5040,10 +5040,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>703135</v>
+        <v>703129</v>
       </c>
       <c r="R39" t="n">
-        <v>7299505</v>
+        <v>7299348</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5113,10 +5113,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111867456</v>
+        <v>111867059</v>
       </c>
       <c r="B40" t="n">
-        <v>90786</v>
+        <v>77388</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5129,21 +5129,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3100</v>
+        <v>6446</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5156,10 +5156,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>703129</v>
+        <v>703135</v>
       </c>
       <c r="R40" t="n">
-        <v>7299348</v>
+        <v>7299505</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
